--- a/API/storage/app/templates/calculation_template.xlsx
+++ b/API/storage/app/templates/calculation_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SNC-calc\API\storage\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBE8AB0-3F8A-4235-A00B-9B0B9CFD086E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7496B471-F27B-454A-B9DF-C29DFD99DF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{BE0F8407-B54E-467C-A5B0-D6E26185057B}">
+    <comment ref="C65" authorId="0" shapeId="0" xr:uid="{BE0F8407-B54E-467C-A5B0-D6E26185057B}">
       <text>
         <r>
           <rPr>
@@ -346,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M66" authorId="0" shapeId="0" xr:uid="{30E1798B-02E0-44BE-BFD2-C312A3996228}">
+    <comment ref="M65" authorId="0" shapeId="0" xr:uid="{30E1798B-02E0-44BE-BFD2-C312A3996228}">
       <text>
         <r>
           <rPr>
@@ -361,7 +361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M68" authorId="0" shapeId="0" xr:uid="{5CFA095C-E4F9-42C4-8787-64B73C4D68E6}">
+    <comment ref="M67" authorId="0" shapeId="0" xr:uid="{5CFA095C-E4F9-42C4-8787-64B73C4D68E6}">
       <text>
         <r>
           <rPr>
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2617" uniqueCount="354">
   <si>
     <t>Biaya Transportasi mobil per km</t>
   </si>
@@ -1408,12 +1408,6 @@
     <t>Pertalite</t>
   </si>
   <si>
-    <t>Agadi Treatent per Liter Larutan</t>
-  </si>
-  <si>
-    <t>Agadi</t>
-  </si>
-  <si>
     <t>Update 2024</t>
   </si>
   <si>
@@ -1435,9 +1429,6 @@
     <t>total botol chemical</t>
   </si>
   <si>
-    <t>Total Larutan</t>
-  </si>
-  <si>
     <t>Jumlah lantai :</t>
   </si>
   <si>
@@ -1445,6 +1436,12 @@
   </si>
   <si>
     <t xml:space="preserve">TOTAL PENAWARAN </t>
+  </si>
+  <si>
+    <t>Total Larutan EXPOSE</t>
+  </si>
+  <si>
+    <t>Total Larutan PREMISE &amp; AGENDA</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1654,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1790,8 +1787,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DB3E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF595959"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2085,13 +2112,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2321,9 +2363,6 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2332,28 +2371,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2396,7 +2413,29 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2463,6 +2502,75 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="14" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="24" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2794,16 +2902,16 @@
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="131"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="143"/>
       <c r="L1" s="5"/>
       <c r="M1" s="7" t="s">
         <v>6</v>
@@ -2818,16 +2926,16 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="131"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="143"/>
       <c r="L2" s="5"/>
       <c r="M2" s="13" t="s">
         <v>12</v>
@@ -2842,16 +2950,16 @@
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="131"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="143"/>
       <c r="L3" s="5"/>
       <c r="M3" s="13" t="s">
         <v>15</v>
@@ -2866,16 +2974,16 @@
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="131"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="143"/>
       <c r="L4" s="5"/>
       <c r="M4" s="16" t="s">
         <v>18</v>
@@ -2890,16 +2998,16 @@
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="131"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="143"/>
       <c r="L5" s="5"/>
       <c r="M5" s="13" t="s">
         <v>21</v>
@@ -2914,16 +3022,16 @@
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="128"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="131"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="143"/>
       <c r="L6" s="5"/>
       <c r="M6" s="13" t="s">
         <v>25</v>
@@ -2938,16 +3046,16 @@
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="128"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="131"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="143"/>
       <c r="L7" s="5"/>
       <c r="M7" s="13" t="s">
         <v>27</v>
@@ -2962,16 +3070,16 @@
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="131"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="143"/>
       <c r="L8" s="5"/>
       <c r="M8" s="7" t="s">
         <v>31</v>
@@ -2988,16 +3096,16 @@
       <c r="A9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="131"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="143"/>
       <c r="L9" s="5"/>
       <c r="M9" s="7" t="s">
         <v>37</v>
@@ -3014,16 +3122,16 @@
       <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="131"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="143"/>
       <c r="L10" s="5"/>
       <c r="M10" s="7" t="s">
         <v>41</v>
@@ -3035,19 +3143,19 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="139"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="142"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="131"/>
       <c r="L11" s="5"/>
       <c r="M11" s="13" t="s">
         <v>44</v>
@@ -3061,17 +3169,17 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="137"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="146"/>
+      <c r="A12" s="126"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="135"/>
       <c r="L12" s="5"/>
       <c r="M12" s="13" t="s">
         <v>46</v>
@@ -3085,17 +3193,17 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="137"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="146"/>
+      <c r="A13" s="126"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="135"/>
       <c r="L13" s="5"/>
       <c r="M13" s="7" t="s">
         <v>47</v>
@@ -3107,17 +3215,17 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="137"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="146"/>
+      <c r="A14" s="126"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="135"/>
       <c r="L14" s="5"/>
       <c r="M14" s="13" t="s">
         <v>50</v>
@@ -3128,17 +3236,17 @@
       <c r="O14" s="111"/>
     </row>
     <row r="15" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="137"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="146"/>
+      <c r="A15" s="126"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="135"/>
       <c r="L15" s="5"/>
       <c r="M15" s="7" t="s">
         <v>52</v>
@@ -3152,17 +3260,17 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="138"/>
-      <c r="B16" s="147"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="150"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="139"/>
       <c r="L16" s="5"/>
       <c r="M16" s="23" t="s">
         <v>58</v>
@@ -3233,10 +3341,10 @@
       <c r="M19" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="N19" s="132" t="s">
-        <v>345</v>
-      </c>
-      <c r="O19" s="132"/>
+      <c r="N19" s="148" t="s">
+        <v>343</v>
+      </c>
+      <c r="O19" s="148"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
@@ -3260,10 +3368,10 @@
       <c r="M20" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="N20" s="133" t="s">
-        <v>346</v>
-      </c>
-      <c r="O20" s="134"/>
+      <c r="N20" s="149" t="s">
+        <v>344</v>
+      </c>
+      <c r="O20" s="150"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
@@ -3288,10 +3396,10 @@
       <c r="M21" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="133" t="s">
-        <v>347</v>
-      </c>
-      <c r="O21" s="134"/>
+      <c r="N21" s="149" t="s">
+        <v>345</v>
+      </c>
+      <c r="O21" s="150"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -3313,11 +3421,11 @@
       <c r="M22" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="N22" s="135">
+      <c r="N22" s="151">
         <f>Cost!F50</f>
         <v>26400</v>
       </c>
-      <c r="O22" s="135"/>
+      <c r="O22" s="151"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
@@ -3343,8 +3451,8 @@
       <c r="M23" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="N23" s="126"/>
-      <c r="O23" s="127"/>
+      <c r="N23" s="146"/>
+      <c r="O23" s="147"/>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
@@ -3368,10 +3476,10 @@
       <c r="M24" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="N24" s="126" t="s">
-        <v>348</v>
-      </c>
-      <c r="O24" s="127"/>
+      <c r="N24" s="146" t="s">
+        <v>346</v>
+      </c>
+      <c r="O24" s="147"/>
     </row>
     <row r="25" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="40" t="s">
@@ -13374,14 +13482,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:K16"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -13392,6 +13492,14 @@
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="N22:O22"/>
     <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:K16"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
@@ -13427,16 +13535,16 @@
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="153"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="152"/>
       <c r="L1" s="5"/>
       <c r="M1" s="7" t="s">
         <v>6</v>
@@ -13451,16 +13559,16 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="153"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="152"/>
       <c r="L2" s="5"/>
       <c r="M2" s="13" t="s">
         <v>12</v>
@@ -13475,16 +13583,16 @@
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="153"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="152"/>
       <c r="L3" s="5"/>
       <c r="M3" s="13" t="s">
         <v>15</v>
@@ -13499,16 +13607,16 @@
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="153"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="152"/>
       <c r="L4" s="5"/>
       <c r="M4" s="16" t="s">
         <v>18</v>
@@ -13523,16 +13631,16 @@
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="153"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="152"/>
       <c r="L5" s="5"/>
       <c r="M5" s="13" t="s">
         <v>20</v>
@@ -13547,16 +13655,16 @@
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="128"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="153"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="152"/>
       <c r="L6" s="5"/>
       <c r="M6" s="13"/>
       <c r="N6" s="14"/>
@@ -13566,16 +13674,16 @@
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="128"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="153"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="152"/>
       <c r="L7" s="5"/>
       <c r="M7" s="13" t="s">
         <v>27</v>
@@ -13590,16 +13698,16 @@
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="153"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="152"/>
       <c r="L8" s="5"/>
       <c r="M8" s="7" t="s">
         <v>31</v>
@@ -13616,16 +13724,16 @@
       <c r="A9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="153"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="152"/>
       <c r="L9" s="5"/>
       <c r="M9" s="7" t="s">
         <v>37</v>
@@ -13642,16 +13750,16 @@
       <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="153"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="152"/>
       <c r="L10" s="5"/>
       <c r="M10" s="7" t="s">
         <v>41</v>
@@ -13663,19 +13771,19 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="139"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="154"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="153"/>
       <c r="L11" s="5"/>
       <c r="M11" s="13" t="s">
         <v>44</v>
@@ -13689,17 +13797,17 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="137"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="155"/>
+      <c r="A12" s="126"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="154"/>
       <c r="L12" s="5"/>
       <c r="M12" s="13" t="s">
         <v>46</v>
@@ -13713,17 +13821,17 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="137"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="155"/>
+      <c r="A13" s="126"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="154"/>
       <c r="L13" s="5"/>
       <c r="M13" s="7" t="s">
         <v>47</v>
@@ -13735,17 +13843,17 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="137"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="155"/>
+      <c r="A14" s="126"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="154"/>
       <c r="L14" s="5"/>
       <c r="M14" s="13" t="s">
         <v>50</v>
@@ -13756,17 +13864,17 @@
       <c r="O14" s="23"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="137"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="155"/>
+      <c r="A15" s="126"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="154"/>
       <c r="L15" s="5"/>
       <c r="M15" s="7" t="s">
         <v>52</v>
@@ -13780,17 +13888,17 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="138"/>
-      <c r="B16" s="147"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="156"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="155"/>
       <c r="L16" s="5"/>
       <c r="M16" s="23" t="s">
         <v>58</v>
@@ -15165,7 +15273,7 @@
       </c>
       <c r="L65" s="50"/>
       <c r="M65" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N65" s="38"/>
       <c r="O65" s="5"/>
@@ -23271,10 +23379,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O977"/>
+  <dimension ref="A1:O978"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23295,16 +23403,16 @@
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="153"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="152"/>
       <c r="L1" s="5"/>
       <c r="M1" s="7" t="s">
         <v>6</v>
@@ -23319,16 +23427,16 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="153"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="152"/>
       <c r="L2" s="5"/>
       <c r="M2" s="13" t="s">
         <v>12</v>
@@ -23343,16 +23451,16 @@
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="153"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="152"/>
       <c r="L3" s="5"/>
       <c r="M3" s="13" t="s">
         <v>15</v>
@@ -23367,16 +23475,16 @@
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="153"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="152"/>
       <c r="L4" s="5"/>
       <c r="M4" s="16" t="s">
         <v>18</v>
@@ -23391,23 +23499,23 @@
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="153"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="152"/>
       <c r="L5" s="5"/>
       <c r="M5" s="13" t="s">
         <v>20</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="15">
-        <f>K65</f>
+        <f>K64</f>
         <v>0</v>
       </c>
     </row>
@@ -23415,16 +23523,16 @@
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="128"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="153"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="152"/>
       <c r="L6" s="5"/>
       <c r="M6" s="13"/>
       <c r="N6" s="14"/>
@@ -23434,23 +23542,23 @@
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="128"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="153"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="152"/>
       <c r="L7" s="5"/>
       <c r="M7" s="13" t="s">
         <v>27</v>
       </c>
       <c r="N7" s="14"/>
       <c r="O7" s="15">
-        <f>K94</f>
+        <f>K95</f>
         <v>0</v>
       </c>
     </row>
@@ -23458,16 +23566,16 @@
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="153"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="152"/>
       <c r="L8" s="5"/>
       <c r="M8" s="7" t="s">
         <v>31</v>
@@ -23484,16 +23592,16 @@
       <c r="A9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="153"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="152"/>
       <c r="L9" s="5"/>
       <c r="M9" s="7" t="s">
         <v>37</v>
@@ -23510,16 +23618,16 @@
       <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="153"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="152"/>
       <c r="L10" s="5"/>
       <c r="M10" s="7" t="s">
         <v>41</v>
@@ -23531,19 +23639,19 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="139"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="154"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="153"/>
       <c r="L11" s="5"/>
       <c r="M11" s="13" t="s">
         <v>44</v>
@@ -23557,17 +23665,17 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="137"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="155"/>
+      <c r="A12" s="126"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="154"/>
       <c r="L12" s="5"/>
       <c r="M12" s="13" t="s">
         <v>46</v>
@@ -23581,17 +23689,17 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="137"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="155"/>
+      <c r="A13" s="126"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="154"/>
       <c r="L13" s="5"/>
       <c r="M13" s="7" t="s">
         <v>47</v>
@@ -23603,17 +23711,17 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="137"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="155"/>
+      <c r="A14" s="126"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="154"/>
       <c r="L14" s="5"/>
       <c r="M14" s="13" t="s">
         <v>50</v>
@@ -23624,17 +23732,17 @@
       <c r="O14" s="23"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="137"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="155"/>
+      <c r="A15" s="126"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="154"/>
       <c r="L15" s="5"/>
       <c r="M15" s="7" t="s">
         <v>52</v>
@@ -23648,17 +23756,17 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="138"/>
-      <c r="B16" s="147"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="156"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="155"/>
       <c r="L16" s="5"/>
       <c r="M16" s="23" t="s">
         <v>58</v>
@@ -23728,8 +23836,8 @@
       <c r="M19" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="N19" s="132"/>
-      <c r="O19" s="132"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="148"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
@@ -23750,11 +23858,11 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="122" t="s">
+      <c r="M20" s="121" t="s">
         <v>222</v>
       </c>
-      <c r="N20" s="158"/>
-      <c r="O20" s="158"/>
+      <c r="N20" s="157"/>
+      <c r="O20" s="157"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
@@ -23779,8 +23887,8 @@
       <c r="M21" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="133"/>
-      <c r="O21" s="133"/>
+      <c r="N21" s="149"/>
+      <c r="O21" s="149"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -23804,12 +23912,12 @@
       <c r="M22" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="N22" s="135"/>
-      <c r="O22" s="135"/>
+      <c r="N22" s="151"/>
+      <c r="O22" s="151"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="120">
@@ -23827,8 +23935,8 @@
       <c r="M23" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
+      <c r="N23" s="146"/>
+      <c r="O23" s="146"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
@@ -23846,8 +23954,8 @@
       <c r="M24" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="N24" s="126"/>
-      <c r="O24" s="126"/>
+      <c r="N24" s="146"/>
+      <c r="O24" s="146"/>
     </row>
     <row r="25" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="40" t="s">
@@ -23864,14 +23972,14 @@
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="124" t="s">
-        <v>353</v>
-      </c>
-      <c r="N25" s="157">
+      <c r="M25" s="123" t="s">
+        <v>350</v>
+      </c>
+      <c r="N25" s="156">
         <f>30/100*O17</f>
         <v>18414.375</v>
       </c>
-      <c r="O25" s="157"/>
+      <c r="O25" s="156"/>
     </row>
     <row r="26" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
@@ -23895,14 +24003,14 @@
         <v>0</v>
       </c>
       <c r="L26" s="5"/>
-      <c r="M26" s="125" t="s">
-        <v>354</v>
-      </c>
-      <c r="N26" s="157">
+      <c r="M26" s="124" t="s">
+        <v>351</v>
+      </c>
+      <c r="N26" s="156">
         <f>O17+N25</f>
         <v>79795.625</v>
       </c>
-      <c r="O26" s="157"/>
+      <c r="O26" s="156"/>
     </row>
     <row r="27" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
@@ -23981,7 +24089,7 @@
       <c r="B29" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="123">
+      <c r="C29" s="122">
         <v>0</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -24153,7 +24261,7 @@
       <c r="B34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="123">
+      <c r="C34" s="122">
         <v>0</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -24328,7 +24436,7 @@
       <c r="B41" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="123">
+      <c r="C41" s="122">
         <v>0</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -24507,7 +24615,7 @@
       <c r="B46" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="123">
+      <c r="C46" s="122">
         <v>0</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -24930,7 +25038,7 @@
       <c r="N61" s="38"/>
       <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="38"/>
@@ -24947,912 +25055,868 @@
       <c r="N62" s="38"/>
       <c r="O62" s="6"/>
     </row>
-    <row r="63" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="47" t="s">
+    <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="190" t="s">
         <v>102</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
+      <c r="B63" s="179"/>
+      <c r="C63" s="179"/>
+      <c r="D63" s="179"/>
+      <c r="E63" s="179"/>
+      <c r="F63" s="179"/>
+      <c r="G63" s="179"/>
+      <c r="H63" s="179"/>
+      <c r="I63" s="179"/>
+      <c r="J63" s="179"/>
+      <c r="K63" s="179"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="38"/>
       <c r="O63" s="5"/>
     </row>
-    <row r="64" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="46" t="s">
+    <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="191" t="s">
         <v>103</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="6" t="s">
+      <c r="B64" s="179"/>
+      <c r="C64" s="179"/>
+      <c r="D64" s="179"/>
+      <c r="E64" s="179"/>
+      <c r="F64" s="179"/>
+      <c r="G64" s="179"/>
+      <c r="H64" s="179"/>
+      <c r="I64" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
+      <c r="J64" s="179"/>
+      <c r="K64" s="189">
+        <f>SUM(J65:J92)</f>
+        <v>0</v>
+      </c>
       <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="38"/>
+      <c r="M64" s="180" t="s">
+        <v>347</v>
+      </c>
+      <c r="N64" s="179"/>
       <c r="O64" s="5"/>
     </row>
-    <row r="65" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5" t="str">
-        <f>'PH TC 2 2024'!A1</f>
-        <v>Agadi Treatent per Liter Larutan</v>
-      </c>
-      <c r="C65" s="38">
-        <v>0</v>
-      </c>
-      <c r="D65" s="5" t="s">
+    <row r="65" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A65" s="179"/>
+      <c r="B65" s="180" t="s">
+        <v>339</v>
+      </c>
+      <c r="C65" s="192">
+        <v>0</v>
+      </c>
+      <c r="D65" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="6">
-        <f>'PH TC 2 2024'!F1</f>
-        <v>2578.0729166666665</v>
-      </c>
-      <c r="J65" s="6">
-        <f t="shared" ref="J65:J91" si="2">I65*C65</f>
-        <v>0</v>
-      </c>
-      <c r="K65" s="6">
-        <f>SUM(J65:J91)</f>
-        <v>0</v>
-      </c>
+      <c r="E65" s="179"/>
+      <c r="F65" s="179"/>
+      <c r="G65" s="179"/>
+      <c r="H65" s="179"/>
+      <c r="I65" s="189">
+        <v>2303.0700000000002</v>
+      </c>
+      <c r="J65" s="189">
+        <f>C65*I65</f>
+        <v>0</v>
+      </c>
+      <c r="K65" s="179"/>
       <c r="L65" s="50"/>
-      <c r="M65" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="N65" s="38"/>
+      <c r="M65" s="197">
+        <f>C22*0.05</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="198" t="s">
+        <v>348</v>
+      </c>
       <c r="O65" s="5"/>
     </row>
-    <row r="66" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5" t="str">
-        <f>'PH TC 2 2024'!A13</f>
-        <v>Expose Soil Treatent per Liter Larutan</v>
-      </c>
-      <c r="C66" s="120">
-        <v>0</v>
-      </c>
-      <c r="D66" s="5" t="s">
+    <row r="66" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A66" s="179"/>
+      <c r="B66" s="180" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="193">
+        <v>0</v>
+      </c>
+      <c r="D66" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="6">
-        <f>'PH TC 2 2024'!F13</f>
-        <v>2303.0729166666665</v>
-      </c>
-      <c r="J66" s="6">
+      <c r="E66" s="179"/>
+      <c r="F66" s="179"/>
+      <c r="G66" s="179"/>
+      <c r="H66" s="179"/>
+      <c r="I66" s="189">
+        <v>3689.04</v>
+      </c>
+      <c r="J66" s="189">
+        <f t="shared" ref="J66:J92" si="2">C66*I66</f>
+        <v>0</v>
+      </c>
+      <c r="K66" s="179"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="197">
+        <f>(M65+(0.5*C23-0.5))*80</f>
+        <v>-40</v>
+      </c>
+      <c r="N66" s="198" t="s">
+        <v>352</v>
+      </c>
+      <c r="O66" s="5"/>
+    </row>
+    <row r="67" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A67" s="179"/>
+      <c r="B67" s="180" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="193">
+        <v>0</v>
+      </c>
+      <c r="D67" s="180" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="179"/>
+      <c r="F67" s="179"/>
+      <c r="G67" s="179"/>
+      <c r="H67" s="179"/>
+      <c r="I67" s="189">
+        <v>6278.91</v>
+      </c>
+      <c r="J67" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K66" s="6"/>
-      <c r="L66" s="50"/>
-      <c r="M66" s="57">
-        <f>C22*5/100</f>
-        <v>0</v>
-      </c>
-      <c r="N66" s="121" t="s">
-        <v>350</v>
-      </c>
-      <c r="O66" s="5"/>
-    </row>
-    <row r="67" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5" t="str">
-        <f>'PH TC 2024'!A25</f>
-        <v>Xterm AG Station</v>
-      </c>
-      <c r="C67" s="38">
-        <v>0</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="K67" s="179"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="197">
+        <f>(M65+(0.5*C23-0.5))*100</f>
+        <v>-50</v>
+      </c>
+      <c r="N67" s="198" t="s">
+        <v>353</v>
+      </c>
+      <c r="O67" s="5"/>
+    </row>
+    <row r="68" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A68" s="179"/>
+      <c r="B68" s="180" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="194">
+        <v>0</v>
+      </c>
+      <c r="D68" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="6">
-        <f>'PH TC 2024'!F25</f>
-        <v>1735134.548611111</v>
-      </c>
-      <c r="J67" s="6">
+      <c r="E68" s="179"/>
+      <c r="F68" s="179"/>
+      <c r="G68" s="179"/>
+      <c r="H68" s="179"/>
+      <c r="I68" s="189">
+        <v>1735134.55</v>
+      </c>
+      <c r="J68" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K67" s="6"/>
-      <c r="L67" s="50"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="121"/>
-      <c r="O67" s="5"/>
-    </row>
-    <row r="68" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5" t="str">
-        <f>'PH TC 2024'!A37</f>
-        <v>Xterm IG Station</v>
-      </c>
-      <c r="C68" s="38">
-        <v>0</v>
-      </c>
-      <c r="D68" s="5" t="s">
+      <c r="K68" s="179"/>
+      <c r="L68" s="50"/>
+      <c r="O68" s="5"/>
+    </row>
+    <row r="69" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A69" s="179"/>
+      <c r="B69" s="180" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" s="194">
+        <v>0</v>
+      </c>
+      <c r="D69" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="6">
-        <f>'PH TC 2024'!F37</f>
-        <v>1769451.8229166667</v>
-      </c>
-      <c r="J68" s="6">
+      <c r="E69" s="179"/>
+      <c r="F69" s="179"/>
+      <c r="G69" s="179"/>
+      <c r="H69" s="179"/>
+      <c r="I69" s="189">
+        <v>1769451.82</v>
+      </c>
+      <c r="J69" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K68" s="6"/>
-      <c r="L68" s="50"/>
-      <c r="M68" s="57">
-        <f>(M66+(0.5*C23-0.5))*80</f>
-        <v>-40</v>
-      </c>
-      <c r="N68" s="121" t="s">
-        <v>351</v>
-      </c>
-      <c r="O68" s="5"/>
-    </row>
-    <row r="69" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5" t="str">
-        <f>'PH TC 2 2024'!A49</f>
-        <v>Expose Wood Treatent per Liter Larutan</v>
-      </c>
-      <c r="C69" s="38">
-        <v>0</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="6">
-        <f>'PH TC 2024'!F49</f>
-        <v>1130</v>
-      </c>
-      <c r="J69" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="6"/>
+      <c r="K69" s="179"/>
       <c r="L69" s="50"/>
       <c r="M69" s="5"/>
       <c r="N69" s="38"/>
       <c r="O69" s="5"/>
     </row>
-    <row r="70" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5" t="str">
-        <f>'PH TC 2024'!A61</f>
-        <v>Queen Killer</v>
-      </c>
-      <c r="C70" s="38">
-        <v>0</v>
-      </c>
-      <c r="D70" s="5" t="s">
+    <row r="70" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A70" s="179"/>
+      <c r="B70" s="180" t="s">
+        <v>338</v>
+      </c>
+      <c r="C70" s="194">
+        <v>0</v>
+      </c>
+      <c r="D70" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="6">
-        <f>'PH TC 2024'!F61</f>
-        <v>709634.54861111112</v>
-      </c>
-      <c r="J70" s="6">
+      <c r="E70" s="179"/>
+      <c r="F70" s="179"/>
+      <c r="G70" s="179"/>
+      <c r="H70" s="179"/>
+      <c r="I70" s="189">
+        <v>1130</v>
+      </c>
+      <c r="J70" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K70" s="6"/>
+      <c r="K70" s="179"/>
       <c r="L70" s="50"/>
       <c r="M70" s="5"/>
       <c r="N70" s="38"/>
       <c r="O70" s="5"/>
     </row>
-    <row r="71" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5" t="str">
-        <f>'PH TC 2024'!A73</f>
-        <v>N/A</v>
-      </c>
-      <c r="C71" s="38">
-        <v>0</v>
-      </c>
-      <c r="D71" s="5" t="s">
+    <row r="71" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A71" s="179"/>
+      <c r="B71" s="180" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" s="194">
+        <v>0</v>
+      </c>
+      <c r="D71" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="6">
-        <f>'PH TC 2024'!F73</f>
-        <v>0</v>
-      </c>
-      <c r="J71" s="6">
+      <c r="E71" s="179"/>
+      <c r="F71" s="179"/>
+      <c r="G71" s="179"/>
+      <c r="H71" s="179"/>
+      <c r="I71" s="189">
+        <v>709634.55</v>
+      </c>
+      <c r="J71" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K71" s="6"/>
+      <c r="K71" s="179"/>
       <c r="L71" s="50"/>
       <c r="M71" s="5"/>
       <c r="N71" s="38"/>
       <c r="O71" s="5"/>
     </row>
-    <row r="72" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5" t="str">
-        <f>'PH TC 2024'!A85</f>
-        <v>N/A</v>
-      </c>
-      <c r="C72" s="38">
-        <v>0</v>
-      </c>
-      <c r="D72" s="5" t="s">
+    <row r="72" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A72" s="179"/>
+      <c r="B72" s="180" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="194">
+        <v>0</v>
+      </c>
+      <c r="D72" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="6">
-        <f>'PH TC 2024'!F85</f>
-        <v>0</v>
-      </c>
-      <c r="J72" s="6">
+      <c r="E72" s="179"/>
+      <c r="F72" s="179"/>
+      <c r="G72" s="179"/>
+      <c r="H72" s="179"/>
+      <c r="I72" s="181">
+        <v>0</v>
+      </c>
+      <c r="J72" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K72" s="6"/>
+      <c r="K72" s="179"/>
       <c r="L72" s="50"/>
       <c r="M72" s="5"/>
       <c r="N72" s="38"/>
       <c r="O72" s="5"/>
     </row>
-    <row r="73" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5" t="str">
-        <f>'PH TC 2024'!A97</f>
-        <v>Mata Bor kayu 2mm</v>
-      </c>
-      <c r="C73" s="38">
-        <v>0</v>
-      </c>
-      <c r="D73" s="5" t="s">
+    <row r="73" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A73" s="179"/>
+      <c r="B73" s="180" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="194">
+        <v>0</v>
+      </c>
+      <c r="D73" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="6">
-        <f>'PH TC 2024'!F97</f>
-        <v>2500</v>
-      </c>
-      <c r="J73" s="6">
+      <c r="E73" s="179"/>
+      <c r="F73" s="179"/>
+      <c r="G73" s="179"/>
+      <c r="H73" s="179"/>
+      <c r="I73" s="181">
+        <v>0</v>
+      </c>
+      <c r="J73" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K73" s="6"/>
+      <c r="K73" s="179"/>
       <c r="L73" s="50"/>
       <c r="M73" s="5"/>
       <c r="N73" s="38"/>
       <c r="O73" s="5"/>
     </row>
-    <row r="74" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5" t="str">
-        <f>'PH TC 2024'!A109</f>
-        <v>Mata Bor kayu 3mm</v>
-      </c>
-      <c r="C74" s="38">
-        <v>0</v>
-      </c>
-      <c r="D74" s="5" t="s">
+    <row r="74" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A74" s="179"/>
+      <c r="B74" s="180" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="194">
+        <v>0</v>
+      </c>
+      <c r="D74" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="6">
-        <f>'PH TC 2024'!F109</f>
+      <c r="E74" s="179"/>
+      <c r="F74" s="179"/>
+      <c r="G74" s="179"/>
+      <c r="H74" s="179"/>
+      <c r="I74" s="189">
         <v>2500</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J74" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K74" s="6"/>
+      <c r="K74" s="179"/>
       <c r="L74" s="50"/>
       <c r="M74" s="5"/>
       <c r="N74" s="38"/>
       <c r="O74" s="5"/>
     </row>
-    <row r="75" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5" t="str">
-        <f>'PH TC 2024'!A121</f>
-        <v>N/A</v>
-      </c>
-      <c r="C75" s="38">
-        <v>0</v>
-      </c>
-      <c r="D75" s="5" t="s">
+    <row r="75" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A75" s="179"/>
+      <c r="B75" s="180" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="194">
+        <v>0</v>
+      </c>
+      <c r="D75" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="6">
-        <f>'PH TC 2024'!F121</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="6">
+      <c r="E75" s="179"/>
+      <c r="F75" s="179"/>
+      <c r="G75" s="179"/>
+      <c r="H75" s="179"/>
+      <c r="I75" s="189">
+        <v>2500</v>
+      </c>
+      <c r="J75" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K75" s="6"/>
+      <c r="K75" s="179"/>
       <c r="L75" s="50"/>
       <c r="M75" s="5"/>
       <c r="N75" s="38"/>
       <c r="O75" s="5"/>
     </row>
-    <row r="76" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5" t="str">
-        <f>'PH TC 2024'!A133</f>
-        <v>N/A</v>
-      </c>
-      <c r="C76" s="38">
-        <v>0</v>
-      </c>
-      <c r="D76" s="5" t="s">
+    <row r="76" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A76" s="179"/>
+      <c r="B76" s="180" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" s="194">
+        <v>0</v>
+      </c>
+      <c r="D76" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="6">
-        <f>'PH TC 2024'!F133</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="6">
+      <c r="E76" s="179"/>
+      <c r="F76" s="179"/>
+      <c r="G76" s="179"/>
+      <c r="H76" s="179"/>
+      <c r="I76" s="181">
+        <v>0</v>
+      </c>
+      <c r="J76" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K76" s="6"/>
+      <c r="K76" s="179"/>
       <c r="L76" s="50"/>
       <c r="M76" s="5"/>
       <c r="N76" s="38"/>
       <c r="O76" s="6"/>
     </row>
-    <row r="77" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5" t="str">
-        <f>'PH TC 2024'!A145</f>
-        <v>Mata bor Hilti 6mm</v>
-      </c>
-      <c r="C77" s="38">
-        <v>0</v>
-      </c>
-      <c r="D77" s="5" t="s">
+    <row r="77" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A77" s="179"/>
+      <c r="B77" s="180" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="194">
+        <v>0</v>
+      </c>
+      <c r="D77" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="6">
-        <f>'PH TC 2024'!F145</f>
-        <v>138000</v>
-      </c>
-      <c r="J77" s="6">
+      <c r="E77" s="179"/>
+      <c r="F77" s="179"/>
+      <c r="G77" s="179"/>
+      <c r="H77" s="179"/>
+      <c r="I77" s="181">
+        <v>0</v>
+      </c>
+      <c r="J77" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K77" s="6"/>
+      <c r="K77" s="179"/>
       <c r="L77" s="50"/>
       <c r="M77" s="5"/>
       <c r="N77" s="38"/>
       <c r="O77" s="6"/>
     </row>
-    <row r="78" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5" t="str">
-        <f>'PH TC 2024'!A157</f>
-        <v>Mata Bor Hilti 8mm</v>
-      </c>
-      <c r="C78" s="38">
-        <v>0</v>
-      </c>
-      <c r="D78" s="5" t="s">
+    <row r="78" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A78" s="179"/>
+      <c r="B78" s="180" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="194">
+        <v>0</v>
+      </c>
+      <c r="D78" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="6">
-        <f>'PH TC 2024'!F157</f>
-        <v>159000</v>
-      </c>
-      <c r="J78" s="6">
+      <c r="E78" s="179"/>
+      <c r="F78" s="179"/>
+      <c r="G78" s="179"/>
+      <c r="H78" s="179"/>
+      <c r="I78" s="189">
+        <v>138000</v>
+      </c>
+      <c r="J78" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K78" s="6"/>
+      <c r="K78" s="179"/>
       <c r="L78" s="50"/>
       <c r="M78" s="5"/>
       <c r="N78" s="38"/>
       <c r="O78" s="6"/>
     </row>
-    <row r="79" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5" t="str">
-        <f>'PH TC 2024'!A169</f>
-        <v>Mata Bor Hilti 10mm</v>
-      </c>
-      <c r="C79" s="38">
-        <v>0</v>
-      </c>
-      <c r="D79" s="5" t="s">
+    <row r="79" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A79" s="179"/>
+      <c r="B79" s="180" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="194">
+        <v>0</v>
+      </c>
+      <c r="D79" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="6">
-        <f>'PH TC 2024'!F169</f>
-        <v>189000</v>
-      </c>
-      <c r="J79" s="6">
+      <c r="E79" s="179"/>
+      <c r="F79" s="179"/>
+      <c r="G79" s="179"/>
+      <c r="H79" s="179"/>
+      <c r="I79" s="189">
+        <v>159000</v>
+      </c>
+      <c r="J79" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K79" s="6"/>
+      <c r="K79" s="179"/>
       <c r="L79" s="50"/>
       <c r="M79" s="5"/>
       <c r="N79" s="38"/>
       <c r="O79" s="6"/>
     </row>
-    <row r="80" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5" t="str">
-        <f>'PH TC 2024'!A181</f>
-        <v>Semen Warna</v>
-      </c>
-      <c r="C80" s="38">
-        <v>0</v>
-      </c>
-      <c r="D80" s="5" t="s">
+    <row r="80" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A80" s="179"/>
+      <c r="B80" s="180" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="194">
+        <v>0</v>
+      </c>
+      <c r="D80" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="6">
-        <f>'PH TC 2024'!F181</f>
-        <v>10000</v>
-      </c>
-      <c r="J80" s="6">
+      <c r="E80" s="179"/>
+      <c r="F80" s="179"/>
+      <c r="G80" s="179"/>
+      <c r="H80" s="179"/>
+      <c r="I80" s="189">
+        <v>189000</v>
+      </c>
+      <c r="J80" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K80" s="6"/>
+      <c r="K80" s="179"/>
       <c r="L80" s="50"/>
       <c r="M80" s="5"/>
       <c r="N80" s="38"/>
       <c r="O80" s="6"/>
     </row>
-    <row r="81" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5" t="str">
-        <f>'PH TC 2024'!A193</f>
-        <v>Premium</v>
-      </c>
-      <c r="C81" s="38">
-        <v>0</v>
-      </c>
-      <c r="D81" s="5" t="s">
+    <row r="81" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A81" s="179"/>
+      <c r="B81" s="180" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" s="194">
+        <v>0</v>
+      </c>
+      <c r="D81" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="6">
-        <f>'PH TC 2024'!F193</f>
-        <v>7650</v>
-      </c>
-      <c r="J81" s="6">
+      <c r="E81" s="179"/>
+      <c r="F81" s="179"/>
+      <c r="G81" s="179"/>
+      <c r="H81" s="179"/>
+      <c r="I81" s="189">
+        <v>10000</v>
+      </c>
+      <c r="J81" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K81" s="6"/>
+      <c r="K81" s="179"/>
       <c r="L81" s="50"/>
       <c r="M81" s="5"/>
       <c r="N81" s="38"/>
       <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5" t="str">
-        <f>'PH TC 2024'!A205</f>
-        <v>Oli Fastron 10W-40SL</v>
-      </c>
-      <c r="C82" s="38">
-        <v>0</v>
-      </c>
-      <c r="D82" s="5" t="s">
+    <row r="82" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A82" s="179"/>
+      <c r="B82" s="180" t="s">
+        <v>131</v>
+      </c>
+      <c r="C82" s="194">
+        <v>0</v>
+      </c>
+      <c r="D82" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="6">
-        <f>'PH TC 2024'!F205</f>
-        <v>50000</v>
-      </c>
-      <c r="J82" s="6">
+      <c r="E82" s="179"/>
+      <c r="F82" s="179"/>
+      <c r="G82" s="179"/>
+      <c r="H82" s="179"/>
+      <c r="I82" s="189">
+        <v>7650</v>
+      </c>
+      <c r="J82" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K82" s="6"/>
+      <c r="K82" s="179"/>
       <c r="L82" s="50"/>
       <c r="M82" s="5"/>
       <c r="N82" s="38"/>
       <c r="O82" s="6"/>
     </row>
-    <row r="83" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5" t="str">
-        <f>'PH TC 2024'!A241</f>
-        <v>Jarum B&amp;G</v>
-      </c>
-      <c r="C83" s="38">
-        <v>0</v>
-      </c>
-      <c r="D83" s="5" t="s">
+    <row r="83" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A83" s="179"/>
+      <c r="B83" s="180" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83" s="194">
+        <v>0</v>
+      </c>
+      <c r="D83" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="6">
-        <f>'PH TC 2024'!F241</f>
-        <v>142500</v>
-      </c>
-      <c r="J83" s="6">
+      <c r="E83" s="179"/>
+      <c r="F83" s="179"/>
+      <c r="G83" s="179"/>
+      <c r="H83" s="179"/>
+      <c r="I83" s="189">
+        <v>50000</v>
+      </c>
+      <c r="J83" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K83" s="6"/>
+      <c r="K83" s="179"/>
       <c r="L83" s="50"/>
       <c r="M83" s="5"/>
       <c r="N83" s="38"/>
       <c r="O83" s="6"/>
     </row>
-    <row r="84" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5" t="str">
-        <f>'PH TC 2024'!A253</f>
-        <v>N/A</v>
-      </c>
-      <c r="C84" s="38">
-        <v>0</v>
-      </c>
-      <c r="D84" s="5" t="s">
+    <row r="84" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A84" s="179"/>
+      <c r="B84" s="180" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" s="194">
+        <v>0</v>
+      </c>
+      <c r="D84" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="6">
-        <f>'PH TC 2024'!F253</f>
-        <v>0</v>
-      </c>
-      <c r="J84" s="6">
+      <c r="E84" s="179"/>
+      <c r="F84" s="179"/>
+      <c r="G84" s="179"/>
+      <c r="H84" s="179"/>
+      <c r="I84" s="189">
+        <v>142500</v>
+      </c>
+      <c r="J84" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K84" s="6"/>
+      <c r="K84" s="179"/>
       <c r="L84" s="50"/>
       <c r="M84" s="5"/>
       <c r="N84" s="38"/>
       <c r="O84" s="6"/>
     </row>
-    <row r="85" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5" t="str">
-        <f>'PH TC 2024'!A265</f>
-        <v>N/A</v>
-      </c>
-      <c r="C85" s="38">
-        <v>0</v>
-      </c>
-      <c r="D85" s="5" t="s">
+    <row r="85" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A85" s="179"/>
+      <c r="B85" s="180" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" s="194">
+        <v>0</v>
+      </c>
+      <c r="D85" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="6">
-        <f>'PH TC 2024'!F265</f>
-        <v>0</v>
-      </c>
-      <c r="J85" s="6">
+      <c r="E85" s="179"/>
+      <c r="F85" s="179"/>
+      <c r="G85" s="179"/>
+      <c r="H85" s="179"/>
+      <c r="I85" s="181">
+        <v>0</v>
+      </c>
+      <c r="J85" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K85" s="6"/>
+      <c r="K85" s="179"/>
       <c r="L85" s="50"/>
       <c r="M85" s="5"/>
       <c r="N85" s="38"/>
       <c r="O85" s="6"/>
     </row>
-    <row r="86" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5" t="str">
-        <f>'PH TC 2024'!A277</f>
-        <v>N/A</v>
-      </c>
-      <c r="C86" s="38">
-        <v>0</v>
-      </c>
-      <c r="D86" s="5" t="s">
+    <row r="86" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A86" s="179"/>
+      <c r="B86" s="180" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" s="194">
+        <v>0</v>
+      </c>
+      <c r="D86" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="6">
-        <f>'PH TC 2024'!F277</f>
-        <v>0</v>
-      </c>
-      <c r="J86" s="6">
+      <c r="E86" s="179"/>
+      <c r="F86" s="179"/>
+      <c r="G86" s="179"/>
+      <c r="H86" s="179"/>
+      <c r="I86" s="181">
+        <v>0</v>
+      </c>
+      <c r="J86" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K86" s="6"/>
+      <c r="K86" s="179"/>
       <c r="L86" s="50"/>
       <c r="M86" s="5"/>
       <c r="N86" s="38"/>
       <c r="O86" s="6"/>
     </row>
-    <row r="87" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5" t="str">
-        <f>'PH TC 2024'!A289</f>
-        <v>N/A</v>
-      </c>
-      <c r="C87" s="38">
-        <v>0</v>
-      </c>
-      <c r="D87" s="5" t="s">
+    <row r="87" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A87" s="179"/>
+      <c r="B87" s="180" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" s="194">
+        <v>0</v>
+      </c>
+      <c r="D87" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="6">
-        <f>'PH TC 2024'!F289</f>
-        <v>0</v>
-      </c>
-      <c r="J87" s="6">
+      <c r="E87" s="179"/>
+      <c r="F87" s="179"/>
+      <c r="G87" s="179"/>
+      <c r="H87" s="179"/>
+      <c r="I87" s="181">
+        <v>0</v>
+      </c>
+      <c r="J87" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K87" s="6"/>
+      <c r="K87" s="179"/>
       <c r="L87" s="50"/>
       <c r="M87" s="5"/>
       <c r="N87" s="38"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5" t="str">
-        <f>'PH TC 2024'!A301</f>
-        <v>N/A</v>
-      </c>
-      <c r="C88" s="38">
-        <v>0</v>
-      </c>
-      <c r="D88" s="5" t="s">
+    <row r="88" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A88" s="179"/>
+      <c r="B88" s="180" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" s="194">
+        <v>0</v>
+      </c>
+      <c r="D88" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="6">
-        <f>'PH TC 2024'!F301</f>
-        <v>0</v>
-      </c>
-      <c r="J88" s="6">
+      <c r="E88" s="179"/>
+      <c r="F88" s="179"/>
+      <c r="G88" s="179"/>
+      <c r="H88" s="179"/>
+      <c r="I88" s="181">
+        <v>0</v>
+      </c>
+      <c r="J88" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K88" s="6"/>
+      <c r="K88" s="179"/>
       <c r="L88" s="50"/>
       <c r="M88" s="5"/>
       <c r="N88" s="38"/>
       <c r="O88" s="6"/>
     </row>
-    <row r="89" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5" t="str">
-        <f>'PH TC 2024'!A313</f>
-        <v>N/A</v>
-      </c>
-      <c r="C89" s="38">
-        <v>0</v>
-      </c>
-      <c r="D89" s="5" t="s">
+    <row r="89" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A89" s="179"/>
+      <c r="B89" s="180" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="194">
+        <v>0</v>
+      </c>
+      <c r="D89" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="6">
-        <f>'PH TC 2024'!F313</f>
-        <v>0</v>
-      </c>
-      <c r="J89" s="6">
+      <c r="E89" s="179"/>
+      <c r="F89" s="179"/>
+      <c r="G89" s="179"/>
+      <c r="H89" s="179"/>
+      <c r="I89" s="181">
+        <v>0</v>
+      </c>
+      <c r="J89" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K89" s="6"/>
+      <c r="K89" s="179"/>
       <c r="L89" s="50"/>
       <c r="M89" s="5"/>
       <c r="N89" s="38"/>
       <c r="O89" s="6"/>
     </row>
-    <row r="90" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5" t="str">
-        <f>'PH TC 2024'!A325</f>
-        <v>N/A</v>
-      </c>
-      <c r="C90" s="38">
-        <v>0</v>
-      </c>
-      <c r="D90" s="5" t="s">
+    <row r="90" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A90" s="179"/>
+      <c r="B90" s="180" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" s="194">
+        <v>0</v>
+      </c>
+      <c r="D90" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="6">
-        <f>'PH TC 2024'!F325</f>
-        <v>0</v>
-      </c>
-      <c r="J90" s="6">
+      <c r="E90" s="179"/>
+      <c r="F90" s="179"/>
+      <c r="G90" s="179"/>
+      <c r="H90" s="179"/>
+      <c r="I90" s="181">
+        <v>0</v>
+      </c>
+      <c r="J90" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K90" s="6"/>
+      <c r="K90" s="179"/>
       <c r="L90" s="50"/>
       <c r="M90" s="5"/>
       <c r="N90" s="38"/>
       <c r="O90" s="6"/>
     </row>
-    <row r="91" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5" t="str">
-        <f>'PH TC 2024'!A337</f>
-        <v>N/A</v>
-      </c>
-      <c r="C91" s="38">
-        <v>0</v>
-      </c>
-      <c r="D91" s="5" t="s">
+    <row r="91" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A91" s="179"/>
+      <c r="B91" s="180" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" s="194">
+        <v>0</v>
+      </c>
+      <c r="D91" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="6">
-        <f>'PH TC 2024'!F337</f>
-        <v>0</v>
-      </c>
-      <c r="J91" s="6">
+      <c r="E91" s="179"/>
+      <c r="F91" s="179"/>
+      <c r="G91" s="179"/>
+      <c r="H91" s="179"/>
+      <c r="I91" s="181">
+        <v>0</v>
+      </c>
+      <c r="J91" s="189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K91" s="6"/>
+      <c r="K91" s="179"/>
       <c r="L91" s="50"/>
       <c r="M91" s="5"/>
       <c r="N91" s="38"/>
       <c r="O91" s="6"/>
     </row>
-    <row r="92" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
+    <row r="92" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="179"/>
+      <c r="B92" s="180" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92" s="194">
+        <v>0</v>
+      </c>
+      <c r="D92" s="180" t="s">
+        <v>105</v>
+      </c>
+      <c r="E92" s="179"/>
+      <c r="F92" s="179"/>
+      <c r="G92" s="179"/>
+      <c r="H92" s="179"/>
+      <c r="I92" s="181">
+        <v>0</v>
+      </c>
+      <c r="J92" s="189">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K92" s="179"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
       <c r="N92" s="38"/>
       <c r="O92" s="6"/>
     </row>
     <row r="93" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
+      <c r="A93" s="187"/>
+      <c r="B93" s="195"/>
+      <c r="C93" s="196"/>
+      <c r="D93" s="195"/>
+      <c r="E93" s="187"/>
+      <c r="F93" s="187"/>
+      <c r="G93" s="187"/>
+      <c r="H93" s="187"/>
+      <c r="I93" s="188"/>
+      <c r="J93" s="188"/>
+      <c r="K93" s="187"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
       <c r="N93" s="38"/>
       <c r="O93" s="6"/>
     </row>
     <row r="94" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
       <c r="C94" s="38"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -25861,49 +25925,40 @@
       <c r="H94" s="5"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
-      <c r="K94" s="6">
-        <f>SUM(J95:J99)</f>
-        <v>0</v>
-      </c>
+      <c r="K94" s="6"/>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
       <c r="N94" s="38"/>
       <c r="O94" s="6"/>
     </row>
-    <row r="95" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="5" t="str">
-        <f>'PH Umum 2024'!A85</f>
-        <v>Masker untuk Klien</v>
-      </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="38">
-        <v>0</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>112</v>
-      </c>
+    <row r="95" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" s="38"/>
+      <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="6">
-        <f>'PH Umum 2024'!F85</f>
-        <v>1000</v>
-      </c>
-      <c r="J95" s="6">
-        <f t="shared" ref="J95:J99" si="3">C95*I95</f>
-        <v>0</v>
-      </c>
-      <c r="K95" s="6"/>
-      <c r="L95" s="50"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6">
+        <f>SUM(J96:J100)</f>
+        <v>0</v>
+      </c>
+      <c r="L95" s="5"/>
       <c r="M95" s="5"/>
       <c r="N95" s="38"/>
       <c r="O95" s="6"/>
     </row>
     <row r="96" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="5" t="str">
-        <f>'PH Umum 2024'!A97</f>
-        <v>Company Profile</v>
+        <f>'PH Umum 2024'!A85</f>
+        <v>Masker untuk Klien</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="38">
@@ -25917,11 +25972,11 @@
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="6">
-        <f>'PH Umum 2024'!F97</f>
-        <v>10000</v>
+        <f>'PH Umum 2024'!F85</f>
+        <v>1000</v>
       </c>
       <c r="J96" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J96:J100" si="3">C96*I96</f>
         <v>0</v>
       </c>
       <c r="K96" s="6"/>
@@ -25932,8 +25987,8 @@
     </row>
     <row r="97" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="5" t="str">
-        <f>'PH Umum 2024'!A109</f>
-        <v>Laporan/SPK/Surat/Kontrak</v>
+        <f>'PH Umum 2024'!A97</f>
+        <v>Company Profile</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="38">
@@ -25947,8 +26002,8 @@
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="6">
-        <f>'PH Umum 2024'!F109</f>
-        <v>5000</v>
+        <f>'PH Umum 2024'!F97</f>
+        <v>10000</v>
       </c>
       <c r="J97" s="6">
         <f t="shared" si="3"/>
@@ -25962,23 +26017,23 @@
     </row>
     <row r="98" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="5" t="str">
-        <f>'PH Umum 2024'!A121</f>
-        <v>BAP</v>
+        <f>'PH Umum 2024'!A109</f>
+        <v>Laporan/SPK/Surat/Kontrak</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="38">
         <v>0</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="6">
-        <f>'PH Umum 2024'!F121</f>
-        <v>50000</v>
+        <f>'PH Umum 2024'!F109</f>
+        <v>5000</v>
       </c>
       <c r="J98" s="6">
         <f t="shared" si="3"/>
@@ -25992,8 +26047,8 @@
     </row>
     <row r="99" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="5" t="str">
-        <f>'PH Umum 2024'!A133</f>
-        <v>LOG BOOK</v>
+        <f>'PH Umum 2024'!A121</f>
+        <v>BAP</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="38">
@@ -26007,8 +26062,8 @@
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="6">
-        <f>'PH Umum 2024'!F133</f>
-        <v>20000</v>
+        <f>'PH Umum 2024'!F121</f>
+        <v>50000</v>
       </c>
       <c r="J99" s="6">
         <f t="shared" si="3"/>
@@ -26020,19 +26075,32 @@
       <c r="N99" s="38"/>
       <c r="O99" s="6"/>
     </row>
-    <row r="100" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="5"/>
+    <row r="100" spans="1:15" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="5" t="str">
+        <f>'PH Umum 2024'!A133</f>
+        <v>LOG BOOK</v>
+      </c>
       <c r="B100" s="5"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="5"/>
+      <c r="C100" s="38">
+        <v>0</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
+      <c r="I100" s="6">
+        <f>'PH Umum 2024'!F133</f>
+        <v>20000</v>
+      </c>
+      <c r="J100" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K100" s="6"/>
-      <c r="L100" s="5"/>
+      <c r="L100" s="50"/>
       <c r="M100" s="5"/>
       <c r="N100" s="38"/>
       <c r="O100" s="6"/>
@@ -26139,13 +26207,22 @@
       <c r="N106" s="38"/>
       <c r="O106" s="6"/>
     </row>
-    <row r="107" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C107" s="31"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="43"/>
-      <c r="K107" s="43"/>
-      <c r="N107" s="31"/>
-      <c r="O107" s="43"/>
+    <row r="107" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="38"/>
+      <c r="O107" s="6"/>
     </row>
     <row r="108" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C108" s="31"/>
@@ -33107,16 +33184,16 @@
       <c r="N977" s="31"/>
       <c r="O977" s="43"/>
     </row>
+    <row r="978" spans="3:15" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C978" s="31"/>
+      <c r="I978" s="43"/>
+      <c r="J978" s="43"/>
+      <c r="K978" s="43"/>
+      <c r="N978" s="31"/>
+      <c r="O978" s="43"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:K16"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="N26:O26"/>
     <mergeCell ref="B7:K7"/>
@@ -33129,9 +33206,17 @@
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="N22:O22"/>
     <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:K16"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -33162,34 +33247,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="170" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
     </row>
     <row r="2" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="170" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
     </row>
     <row r="3" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="171">
+      <c r="A3" s="170">
         <v>2022</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
     </row>
     <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="63" t="s">
@@ -33626,13 +33711,13 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="172" t="s">
+      <c r="A13" s="171" t="s">
         <v>250</v>
       </c>
-      <c r="B13" s="173"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="174"/>
+      <c r="B13" s="172"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="173"/>
       <c r="F13" s="82">
         <f>SUM(F6:F12)</f>
         <v>0</v>
@@ -34669,13 +34754,13 @@
         <f t="shared" si="5"/>
         <v>26400</v>
       </c>
-      <c r="H36" s="159" t="s">
+      <c r="H36" s="158" t="s">
         <v>290</v>
       </c>
-      <c r="I36" s="160"/>
-      <c r="J36" s="160"/>
-      <c r="K36" s="160"/>
-      <c r="L36" s="161"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="159"/>
+      <c r="K36" s="159"/>
+      <c r="L36" s="160"/>
       <c r="M36" s="90">
         <f>SUM(M6:M35)</f>
         <v>0</v>
@@ -34708,13 +34793,13 @@
       </c>
     </row>
     <row r="38" spans="1:15" s="89" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="172" t="s">
+      <c r="A38" s="171" t="s">
         <v>275</v>
       </c>
-      <c r="B38" s="173"/>
-      <c r="C38" s="173"/>
-      <c r="D38" s="173"/>
-      <c r="E38" s="174"/>
+      <c r="B38" s="172"/>
+      <c r="C38" s="172"/>
+      <c r="D38" s="172"/>
+      <c r="E38" s="173"/>
       <c r="F38" s="82">
         <f>SUM(F15:F37)</f>
         <v>26400</v>
@@ -34946,26 +35031,26 @@
       </c>
     </row>
     <row r="49" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="162" t="s">
+      <c r="A49" s="161" t="s">
         <v>291</v>
       </c>
-      <c r="B49" s="163"/>
-      <c r="C49" s="163"/>
-      <c r="D49" s="163"/>
-      <c r="E49" s="164"/>
+      <c r="B49" s="162"/>
+      <c r="C49" s="162"/>
+      <c r="D49" s="162"/>
+      <c r="E49" s="163"/>
       <c r="F49" s="82">
         <f>SUM(F40:F48)</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="165" t="s">
+      <c r="A50" s="164" t="s">
         <v>292</v>
       </c>
-      <c r="B50" s="166"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="166"/>
-      <c r="E50" s="167"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
+      <c r="E50" s="166"/>
       <c r="F50" s="92">
         <f>F49+F38+F13+M36</f>
         <v>26400</v>
@@ -35008,14 +35093,14 @@
       <c r="F82" s="97"/>
     </row>
     <row r="83" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="168" t="s">
+      <c r="A83" s="167" t="s">
         <v>293</v>
       </c>
-      <c r="B83" s="169"/>
-      <c r="C83" s="169"/>
-      <c r="D83" s="169"/>
-      <c r="E83" s="169"/>
-      <c r="F83" s="170"/>
+      <c r="B83" s="168"/>
+      <c r="C83" s="168"/>
+      <c r="D83" s="168"/>
+      <c r="E83" s="168"/>
+      <c r="F83" s="169"/>
     </row>
     <row r="88" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="G88" s="98"/>
@@ -35063,7 +35148,7 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
@@ -35785,7 +35870,7 @@
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -43824,10 +43909,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="174" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="176"/>
+      <c r="B1" s="175"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -45015,10 +45100,10 @@
       <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="175" t="s">
+      <c r="A85" s="174" t="s">
         <v>302</v>
       </c>
-      <c r="B85" s="176"/>
+      <c r="B85" s="175"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -45186,10 +45271,10 @@
       <c r="F96" s="5"/>
     </row>
     <row r="97" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="175" t="s">
+      <c r="A97" s="174" t="s">
         <v>146</v>
       </c>
-      <c r="B97" s="176"/>
+      <c r="B97" s="175"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -58328,10 +58413,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G347"/>
+  <dimension ref="A1:G359"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -58342,159 +58427,147 @@
     <col min="5" max="6" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="51">
-        <f>SUM(E3:E11)</f>
-        <v>2578.0729166666665</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="176" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="178">
+        <v>2303.072917</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="179"/>
+      <c r="B2" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="179"/>
+      <c r="D2" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B3" s="52">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="F2" s="179"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="180" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="181">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C3" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="113">
-        <f>2*190000</f>
-        <v>380000</v>
-      </c>
-      <c r="E3" s="52">
-        <f t="shared" ref="E3:E11" si="0">D3*B3</f>
-        <v>1900</v>
-      </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="D3" s="182">
+        <v>650000</v>
+      </c>
+      <c r="E3" s="181">
+        <v>1625</v>
+      </c>
+      <c r="F3" s="179"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="180" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="181">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="181">
         <v>100</v>
       </c>
-      <c r="E4" s="52">
-        <f t="shared" si="0"/>
+      <c r="E4" s="181">
         <v>100</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="F4" s="179"/>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="180" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="181">
         <v>0.02</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="180" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="10">
-        <f>'PH Umum 2024'!F37</f>
-        <v>28903.645833333332</v>
-      </c>
-      <c r="E5" s="52">
-        <f t="shared" si="0"/>
-        <v>578.07291666666663</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D5" s="183">
+        <v>28904</v>
+      </c>
+      <c r="E5" s="181">
+        <v>578.07291669999995</v>
+      </c>
+      <c r="F5" s="179"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="179"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="181">
+        <v>0</v>
+      </c>
+      <c r="F6" s="179"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="181">
+        <v>0</v>
+      </c>
+      <c r="F7" s="179"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="179"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="181">
+        <v>0</v>
+      </c>
+      <c r="F8" s="179"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="179"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="181">
+        <v>0</v>
+      </c>
+      <c r="F9" s="179"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="179"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="181">
+        <v>0</v>
+      </c>
+      <c r="F10" s="179"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="179"/>
+      <c r="B11" s="179"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="181">
+        <v>0</v>
+      </c>
+      <c r="F11" s="179"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -58502,342 +58575,294 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="51">
-        <f>SUM(E15:E23)</f>
-        <v>2303.0729166666665</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="184" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="185"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="186">
+        <v>3689.036458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="179"/>
+      <c r="B14" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="179"/>
+      <c r="D14" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B15" s="52">
+      <c r="F14" s="179"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="180" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="181">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="113">
-        <f>5*130000</f>
-        <v>650000</v>
-      </c>
-      <c r="E15" s="52">
-        <f t="shared" ref="E15:E23" si="1">D15*B15</f>
-        <v>1625</v>
-      </c>
-      <c r="F15" s="5"/>
+      <c r="D15" s="182">
+        <v>1200000</v>
+      </c>
+      <c r="E15" s="181">
+        <v>3000</v>
+      </c>
+      <c r="F15" s="179"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="180" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="52">
+      <c r="B16" s="181">
         <v>1</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="181">
         <v>100</v>
       </c>
-      <c r="E16" s="52">
-        <f t="shared" si="1"/>
+      <c r="E16" s="181">
         <v>100</v>
       </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5" t="s">
+      <c r="F16" s="179"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="180" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="52">
+      <c r="B17" s="181">
         <v>0.02</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="180" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="104">
-        <f>'PH Umum 2024'!F37</f>
-        <v>28903.645833333332</v>
-      </c>
-      <c r="E17" s="52">
-        <f t="shared" si="1"/>
-        <v>578.07291666666663</v>
-      </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="51">
-        <f>SUM(E27:E35)</f>
-        <v>1735134.548611111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="s">
+      <c r="D17" s="183">
+        <v>29452</v>
+      </c>
+      <c r="E17" s="181">
+        <v>589.03645830000005</v>
+      </c>
+      <c r="F17" s="179"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="179"/>
+      <c r="B18" s="179"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="181">
+        <v>0</v>
+      </c>
+      <c r="F18" s="179"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="179"/>
+      <c r="B19" s="179"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="181">
+        <v>0</v>
+      </c>
+      <c r="F19" s="179"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="179"/>
+      <c r="B20" s="179"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="179"/>
+      <c r="E20" s="181">
+        <v>0</v>
+      </c>
+      <c r="F20" s="179"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="179"/>
+      <c r="B21" s="179"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="181">
+        <v>0</v>
+      </c>
+      <c r="F21" s="179"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="179"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="181">
+        <v>0</v>
+      </c>
+      <c r="F22" s="179"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="179"/>
+      <c r="B23" s="179"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="179"/>
+      <c r="E23" s="181">
+        <v>0</v>
+      </c>
+      <c r="F23" s="179"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="187"/>
+      <c r="B24" s="187"/>
+      <c r="C24" s="187"/>
+      <c r="D24" s="187"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="187"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="184" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="185"/>
+      <c r="C25" s="185"/>
+      <c r="D25" s="185"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="186">
+        <v>6278.90625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="179"/>
+      <c r="B26" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="179"/>
+      <c r="D26" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B27" s="5">
-        <v>3</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D27" s="114">
-        <v>520000</v>
-      </c>
-      <c r="E27" s="115">
-        <f t="shared" ref="E27:E35" si="2">D27*B27</f>
-        <v>1560000</v>
-      </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B28" s="5">
+      <c r="F26" s="179"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="180" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="186">
+        <v>0.01</v>
+      </c>
+      <c r="C27" s="180" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="182">
+        <v>560000</v>
+      </c>
+      <c r="E27" s="181">
+        <v>5600</v>
+      </c>
+      <c r="F27" s="179"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="180" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="181">
         <v>1</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D28" s="114">
-        <v>70000</v>
-      </c>
-      <c r="E28" s="115">
-        <f t="shared" si="2"/>
-        <v>70000</v>
-      </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B29" s="5">
-        <v>1</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D29" s="114">
-        <v>90000</v>
-      </c>
-      <c r="E29" s="115">
-        <f t="shared" si="2"/>
-        <v>90000</v>
-      </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D30" s="114">
-        <v>55000</v>
-      </c>
-      <c r="E30" s="115">
-        <f t="shared" si="2"/>
-        <v>5500</v>
-      </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="5" t="s">
+      <c r="C28" s="180" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="181">
+        <v>100</v>
+      </c>
+      <c r="E28" s="181">
+        <v>100</v>
+      </c>
+      <c r="F28" s="179"/>
+    </row>
+    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="180" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="52">
-        <f>20/60</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="B29" s="181">
+        <v>0.02</v>
+      </c>
+      <c r="C29" s="180" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="54">
-        <f>'PH Umum 2024'!F37</f>
-        <v>28903.645833333332</v>
-      </c>
-      <c r="E31" s="52">
-        <f t="shared" si="2"/>
-        <v>9634.5486111111095</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="5"/>
+      <c r="D29" s="183">
+        <v>28945</v>
+      </c>
+      <c r="E29" s="181">
+        <v>578.90625</v>
+      </c>
+      <c r="F29" s="179"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="179"/>
+      <c r="B30" s="179"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="181">
+        <v>0</v>
+      </c>
+      <c r="F30" s="179"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="179"/>
+      <c r="B31" s="179"/>
+      <c r="C31" s="179"/>
+      <c r="D31" s="179"/>
+      <c r="E31" s="181">
+        <v>0</v>
+      </c>
+      <c r="F31" s="179"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="179"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="181">
+        <v>0</v>
+      </c>
+      <c r="F32" s="179"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="179"/>
+      <c r="B33" s="179"/>
+      <c r="C33" s="179"/>
+      <c r="D33" s="179"/>
+      <c r="E33" s="181">
+        <v>0</v>
+      </c>
+      <c r="F33" s="179"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="179"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="179"/>
+      <c r="E34" s="181">
+        <v>0</v>
+      </c>
+      <c r="F34" s="179"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="179"/>
+      <c r="B35" s="179"/>
+      <c r="C35" s="179"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="181">
+        <v>0</v>
+      </c>
+      <c r="F35" s="179"/>
     </row>
     <row r="36" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -58849,7 +58874,7 @@
     </row>
     <row r="37" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="58" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -58857,7 +58882,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="51">
         <f>SUM(E39:E47)</f>
-        <v>1769451.8229166667</v>
+        <v>1735134.548611111</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -58876,7 +58901,7 @@
     </row>
     <row r="39" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B39" s="5">
         <v>3</v>
@@ -58888,14 +58913,14 @@
         <v>520000</v>
       </c>
       <c r="E39" s="115">
-        <f t="shared" ref="E39:E47" si="3">D39*B39</f>
+        <f t="shared" ref="E39:E47" si="0">D39*B39</f>
         <v>1560000</v>
       </c>
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B40" s="5">
         <v>1</v>
@@ -58904,17 +58929,17 @@
         <v>174</v>
       </c>
       <c r="D40" s="114">
-        <v>40000</v>
+        <v>70000</v>
       </c>
       <c r="E40" s="115">
-        <f t="shared" si="3"/>
-        <v>40000</v>
+        <f t="shared" si="0"/>
+        <v>70000</v>
       </c>
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
@@ -58923,45 +58948,51 @@
         <v>174</v>
       </c>
       <c r="D41" s="114">
-        <v>155000</v>
+        <v>90000</v>
       </c>
       <c r="E41" s="115">
-        <f t="shared" si="3"/>
-        <v>155000</v>
+        <f t="shared" si="0"/>
+        <v>90000</v>
       </c>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D42" s="114">
+        <v>55000</v>
+      </c>
+      <c r="E42" s="115">
+        <f t="shared" si="0"/>
+        <v>5500</v>
+      </c>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="52">
-        <f>30/60</f>
-        <v>0.5</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="B43" s="52">
+        <f>20/60</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D42" s="54">
+      <c r="D43" s="54">
         <f>'PH Umum 2024'!F37</f>
         <v>28903.645833333332</v>
       </c>
-      <c r="E42" s="52">
-        <f t="shared" si="3"/>
-        <v>14451.822916666666</v>
-      </c>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="5"/>
       <c r="E43" s="52">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9634.5486111111095</v>
       </c>
       <c r="F43" s="5"/>
     </row>
@@ -58973,7 +59004,7 @@
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F44" s="5"/>
@@ -58986,7 +59017,7 @@
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F45" s="5"/>
@@ -58999,7 +59030,7 @@
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F46" s="5"/>
@@ -59012,7 +59043,7 @@
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F47" s="5"/>
@@ -59026,8 +59057,8 @@
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>338</v>
+      <c r="A49" s="58" t="s">
+        <v>207</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -59035,7 +59066,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="51">
         <f>SUM(E51:E59)</f>
-        <v>405</v>
+        <v>1769451.8229166667</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -59054,80 +59085,91 @@
     </row>
     <row r="51" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B51" s="52">
-        <v>1E-3</v>
+        <v>208</v>
+      </c>
+      <c r="B51" s="5">
+        <v>3</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="53">
-        <v>135000</v>
-      </c>
-      <c r="E51" s="52">
-        <f t="shared" ref="E51:E59" si="4">D51*B51</f>
-        <v>135</v>
+        <v>174</v>
+      </c>
+      <c r="D51" s="114">
+        <v>520000</v>
+      </c>
+      <c r="E51" s="115">
+        <f t="shared" ref="E51:E59" si="1">D51*B51</f>
+        <v>1560000</v>
       </c>
       <c r="F51" s="5"/>
-      <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B52" s="52">
+        <v>209</v>
+      </c>
+      <c r="B52" s="5">
         <v>1</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="52">
-        <v>100</v>
-      </c>
-      <c r="E52" s="52">
-        <f t="shared" si="4"/>
-        <v>100</v>
+        <v>174</v>
+      </c>
+      <c r="D52" s="114">
+        <v>40000</v>
+      </c>
+      <c r="E52" s="115">
+        <f t="shared" si="1"/>
+        <v>40000</v>
       </c>
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="114">
+        <v>155000</v>
+      </c>
+      <c r="E53" s="115">
+        <f t="shared" si="1"/>
+        <v>155000</v>
+      </c>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="52">
-        <v>0.02</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="B54" s="52">
+        <f>30/60</f>
+        <v>0.5</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="52">
-        <v>8500</v>
-      </c>
-      <c r="E53" s="52">
-        <f t="shared" si="4"/>
-        <v>170</v>
-      </c>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="D54" s="54">
+        <f>'PH Umum 2024'!F37</f>
+        <v>28903.645833333332</v>
+      </c>
       <c r="E54" s="52">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>14451.822916666666</v>
       </c>
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
+      <c r="C55" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D55" s="5"/>
       <c r="E55" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F55" s="5"/>
@@ -59135,10 +59177,12 @@
     <row r="56" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
+      <c r="C56" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D56" s="5"/>
       <c r="E56" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F56" s="5"/>
@@ -59146,10 +59190,12 @@
     <row r="57" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
+      <c r="C57" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D57" s="5"/>
       <c r="E57" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F57" s="5"/>
@@ -59157,10 +59203,12 @@
     <row r="58" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
+      <c r="C58" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D58" s="5"/>
       <c r="E58" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F58" s="5"/>
@@ -59168,10 +59216,12 @@
     <row r="59" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
+      <c r="C59" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D59" s="5"/>
       <c r="E59" s="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F59" s="5"/>
@@ -59185,8 +59235,8 @@
       <c r="F60" s="5"/>
     </row>
     <row r="61" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="58" t="s">
-        <v>211</v>
+      <c r="A61" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -59194,7 +59244,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="51">
         <f>SUM(E63:E71)</f>
-        <v>709634.54861111112</v>
+        <v>405</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -59213,66 +59263,69 @@
     </row>
     <row r="63" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B63" s="5">
-        <v>2</v>
+        <v>337</v>
+      </c>
+      <c r="B63" s="52">
+        <v>1E-3</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" s="5">
-        <v>350000</v>
+        <v>7</v>
+      </c>
+      <c r="D63" s="53">
+        <v>135000</v>
       </c>
       <c r="E63" s="52">
-        <f t="shared" ref="E63:E71" si="5">D63*B63</f>
-        <v>700000</v>
+        <f t="shared" ref="E63:E71" si="2">D63*B63</f>
+        <v>135</v>
       </c>
       <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G63" s="12"/>
+    </row>
+    <row r="64" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="52">
+        <v>1</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="52">
+        <v>100</v>
+      </c>
+      <c r="E64" s="52">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="52">
-        <f>20/60</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="B65" s="52">
+        <v>0.02</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D64" s="54">
-        <f>'PH Umum 2024'!F37</f>
-        <v>28903.645833333332</v>
-      </c>
-      <c r="E64" s="52">
-        <f t="shared" si="5"/>
-        <v>9634.5486111111095</v>
-      </c>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" s="5"/>
+      <c r="D65" s="52">
+        <v>8500</v>
+      </c>
       <c r="E65" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>170</v>
       </c>
       <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
-      <c r="C66" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F66" s="5"/>
@@ -59280,12 +59333,10 @@
     <row r="67" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F67" s="5"/>
@@ -59293,12 +59344,10 @@
     <row r="68" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
-      <c r="C68" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F68" s="5"/>
@@ -59306,12 +59355,10 @@
     <row r="69" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F69" s="5"/>
@@ -59319,12 +59366,10 @@
     <row r="70" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
-      <c r="C70" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F70" s="5"/>
@@ -59332,12 +59377,10 @@
     <row r="71" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F71" s="5"/>
@@ -59351,8 +59394,8 @@
       <c r="F72" s="5"/>
     </row>
     <row r="73" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>122</v>
+      <c r="A73" s="58" t="s">
+        <v>211</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -59360,7 +59403,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="51">
         <f>SUM(E75:E83)</f>
-        <v>0</v>
+        <v>709634.54861111112</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -59378,28 +59421,42 @@
       <c r="F74" s="5"/>
     </row>
     <row r="75" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
+      <c r="A75" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B75" s="5">
+        <v>2</v>
+      </c>
       <c r="C75" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D75" s="5"/>
+      <c r="D75" s="5">
+        <v>350000</v>
+      </c>
       <c r="E75" s="52">
-        <f t="shared" ref="E75:E83" si="6">D75*B75</f>
-        <v>0</v>
+        <f t="shared" ref="E75:E83" si="3">D75*B75</f>
+        <v>700000</v>
       </c>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" s="52">
+        <f>20/60</f>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="C76" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D76" s="5"/>
+        <v>119</v>
+      </c>
+      <c r="D76" s="54">
+        <f>'PH Umum 2024'!F37</f>
+        <v>28903.645833333332</v>
+      </c>
       <c r="E76" s="52">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>9634.5486111111095</v>
       </c>
       <c r="F76" s="5"/>
     </row>
@@ -59411,7 +59468,7 @@
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F77" s="5"/>
@@ -59424,7 +59481,7 @@
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F78" s="5"/>
@@ -59437,7 +59494,7 @@
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F79" s="5"/>
@@ -59450,7 +59507,7 @@
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F80" s="5"/>
@@ -59463,7 +59520,7 @@
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F81" s="5"/>
@@ -59476,7 +59533,7 @@
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F82" s="5"/>
@@ -59489,7 +59546,7 @@
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F83" s="5"/>
@@ -59537,7 +59594,7 @@
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="52">
-        <f t="shared" ref="E87:E95" si="7">D87*B87</f>
+        <f t="shared" ref="E87:E95" si="4">D87*B87</f>
         <v>0</v>
       </c>
       <c r="F87" s="5"/>
@@ -59550,7 +59607,7 @@
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F88" s="5"/>
@@ -59563,7 +59620,7 @@
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F89" s="5"/>
@@ -59576,7 +59633,7 @@
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F90" s="5"/>
@@ -59589,7 +59646,7 @@
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F91" s="5"/>
@@ -59602,7 +59659,7 @@
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F92" s="5"/>
@@ -59615,7 +59672,7 @@
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F93" s="5"/>
@@ -59628,7 +59685,7 @@
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F94" s="5"/>
@@ -59641,7 +59698,7 @@
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F95" s="5"/>
@@ -59656,7 +59713,7 @@
     </row>
     <row r="97" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -59664,7 +59721,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="51">
         <f>SUM(E99:E107)</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -59682,31 +59739,27 @@
       <c r="F98" s="5"/>
     </row>
     <row r="99" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B99" s="52">
-        <v>1</v>
-      </c>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
       <c r="C99" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D99" s="52">
-        <v>2500</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D99" s="5"/>
       <c r="E99" s="52">
-        <f t="shared" ref="E99:E107" si="8">D99*B99</f>
-        <v>2500</v>
+        <f t="shared" ref="E99:E107" si="5">D99*B99</f>
+        <v>0</v>
       </c>
       <c r="F99" s="5"/>
     </row>
     <row r="100" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
+      <c r="C100" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D100" s="5"/>
       <c r="E100" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F100" s="5"/>
@@ -59714,10 +59767,12 @@
     <row r="101" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
+      <c r="C101" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D101" s="5"/>
       <c r="E101" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F101" s="5"/>
@@ -59725,10 +59780,12 @@
     <row r="102" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
+      <c r="C102" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D102" s="5"/>
       <c r="E102" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F102" s="5"/>
@@ -59736,10 +59793,12 @@
     <row r="103" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
+      <c r="C103" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D103" s="5"/>
       <c r="E103" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F103" s="5"/>
@@ -59747,10 +59806,12 @@
     <row r="104" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
+      <c r="C104" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D104" s="5"/>
       <c r="E104" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F104" s="5"/>
@@ -59758,10 +59819,12 @@
     <row r="105" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
+      <c r="C105" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D105" s="5"/>
       <c r="E105" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F105" s="5"/>
@@ -59769,10 +59832,12 @@
     <row r="106" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
+      <c r="C106" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D106" s="5"/>
       <c r="E106" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F106" s="5"/>
@@ -59780,10 +59845,12 @@
     <row r="107" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
+      <c r="C107" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D107" s="5"/>
       <c r="E107" s="52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F107" s="5"/>
@@ -59798,7 +59865,7 @@
     </row>
     <row r="109" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -59825,7 +59892,7 @@
     </row>
     <row r="111" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B111" s="52">
         <v>1</v>
@@ -59837,7 +59904,7 @@
         <v>2500</v>
       </c>
       <c r="E111" s="52">
-        <f t="shared" ref="E111:E119" si="9">D111*B111</f>
+        <f t="shared" ref="E111:E119" si="6">D111*B111</f>
         <v>2500</v>
       </c>
       <c r="F111" s="5"/>
@@ -59848,7 +59915,7 @@
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F112" s="5"/>
@@ -59859,7 +59926,7 @@
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F113" s="5"/>
@@ -59870,7 +59937,7 @@
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F114" s="5"/>
@@ -59881,7 +59948,7 @@
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F115" s="5"/>
@@ -59892,7 +59959,7 @@
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F116" s="5"/>
@@ -59903,7 +59970,7 @@
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F117" s="5"/>
@@ -59914,7 +59981,7 @@
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F118" s="5"/>
@@ -59925,7 +59992,7 @@
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F119" s="5"/>
@@ -59940,7 +60007,7 @@
     </row>
     <row r="121" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -59948,7 +60015,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="51">
         <f>SUM(E123:E131)</f>
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -59966,27 +60033,31 @@
       <c r="F122" s="5"/>
     </row>
     <row r="123" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
+      <c r="A123" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" s="52">
+        <v>1</v>
+      </c>
       <c r="C123" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D123" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="D123" s="52">
+        <v>2500</v>
+      </c>
       <c r="E123" s="52">
-        <f t="shared" ref="E123:E131" si="10">D123*B123</f>
-        <v>0</v>
+        <f t="shared" ref="E123:E131" si="7">D123*B123</f>
+        <v>2500</v>
       </c>
       <c r="F123" s="5"/>
     </row>
     <row r="124" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
-      <c r="C124" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F124" s="5"/>
@@ -59994,12 +60065,10 @@
     <row r="125" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
-      <c r="C125" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F125" s="5"/>
@@ -60007,12 +60076,10 @@
     <row r="126" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
-      <c r="C126" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F126" s="5"/>
@@ -60020,12 +60087,10 @@
     <row r="127" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
-      <c r="C127" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F127" s="5"/>
@@ -60033,12 +60098,10 @@
     <row r="128" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
-      <c r="C128" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F128" s="5"/>
@@ -60046,12 +60109,10 @@
     <row r="129" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
-      <c r="C129" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F129" s="5"/>
@@ -60059,12 +60120,10 @@
     <row r="130" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
-      <c r="C130" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F130" s="5"/>
@@ -60072,12 +60131,10 @@
     <row r="131" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
-      <c r="C131" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F131" s="5"/>
@@ -60125,7 +60182,7 @@
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="52">
-        <f t="shared" ref="E135:E143" si="11">D135*B135</f>
+        <f t="shared" ref="E135:E143" si="8">D135*B135</f>
         <v>0</v>
       </c>
       <c r="F135" s="5"/>
@@ -60138,7 +60195,7 @@
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F136" s="5"/>
@@ -60151,7 +60208,7 @@
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F137" s="5"/>
@@ -60164,7 +60221,7 @@
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F138" s="5"/>
@@ -60177,7 +60234,7 @@
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F139" s="5"/>
@@ -60190,7 +60247,7 @@
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F140" s="5"/>
@@ -60203,7 +60260,7 @@
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F141" s="5"/>
@@ -60216,7 +60273,7 @@
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F142" s="5"/>
@@ -60229,7 +60286,7 @@
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F143" s="5"/>
@@ -60244,7 +60301,7 @@
     </row>
     <row r="145" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -60252,7 +60309,7 @@
       <c r="E145" s="1"/>
       <c r="F145" s="51">
         <f>SUM(E147:E155)</f>
-        <v>138000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -60270,31 +60327,27 @@
       <c r="F146" s="5"/>
     </row>
     <row r="147" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A147" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B147" s="52">
-        <v>0.3</v>
-      </c>
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
       <c r="C147" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D147" s="52">
-        <v>460000</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D147" s="5"/>
       <c r="E147" s="52">
-        <f t="shared" ref="E147:E155" si="12">D147*B147</f>
-        <v>138000</v>
+        <f t="shared" ref="E147:E155" si="9">D147*B147</f>
+        <v>0</v>
       </c>
       <c r="F147" s="5"/>
     </row>
     <row r="148" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
+      <c r="C148" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D148" s="5"/>
       <c r="E148" s="52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F148" s="5"/>
@@ -60302,10 +60355,12 @@
     <row r="149" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
+      <c r="C149" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D149" s="5"/>
       <c r="E149" s="52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F149" s="5"/>
@@ -60313,10 +60368,12 @@
     <row r="150" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
+      <c r="C150" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D150" s="5"/>
       <c r="E150" s="52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F150" s="5"/>
@@ -60324,10 +60381,12 @@
     <row r="151" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
+      <c r="C151" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D151" s="5"/>
       <c r="E151" s="52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F151" s="5"/>
@@ -60335,10 +60394,12 @@
     <row r="152" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
+      <c r="C152" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D152" s="5"/>
       <c r="E152" s="52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F152" s="5"/>
@@ -60346,10 +60407,12 @@
     <row r="153" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
+      <c r="C153" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D153" s="5"/>
       <c r="E153" s="52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F153" s="5"/>
@@ -60357,10 +60420,12 @@
     <row r="154" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
+      <c r="C154" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D154" s="5"/>
       <c r="E154" s="52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F154" s="5"/>
@@ -60368,10 +60433,12 @@
     <row r="155" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
+      <c r="C155" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D155" s="5"/>
       <c r="E155" s="52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F155" s="5"/>
@@ -60386,7 +60453,7 @@
     </row>
     <row r="157" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -60394,7 +60461,7 @@
       <c r="E157" s="1"/>
       <c r="F157" s="51">
         <f>SUM(E159:E167)</f>
-        <v>159000</v>
+        <v>138000</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -60413,7 +60480,7 @@
     </row>
     <row r="159" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B159" s="52">
         <v>0.3</v>
@@ -60422,11 +60489,11 @@
         <v>62</v>
       </c>
       <c r="D159" s="52">
-        <v>530000</v>
+        <v>460000</v>
       </c>
       <c r="E159" s="52">
-        <f t="shared" ref="E159:E167" si="13">D159*B159</f>
-        <v>159000</v>
+        <f t="shared" ref="E159:E167" si="10">D159*B159</f>
+        <v>138000</v>
       </c>
       <c r="F159" s="5"/>
     </row>
@@ -60436,7 +60503,7 @@
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F160" s="5"/>
@@ -60447,7 +60514,7 @@
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F161" s="5"/>
@@ -60458,7 +60525,7 @@
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F162" s="5"/>
@@ -60469,7 +60536,7 @@
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F163" s="5"/>
@@ -60480,7 +60547,7 @@
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F164" s="5"/>
@@ -60491,7 +60558,7 @@
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F165" s="5"/>
@@ -60502,7 +60569,7 @@
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F166" s="5"/>
@@ -60513,7 +60580,7 @@
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F167" s="5"/>
@@ -60528,7 +60595,7 @@
     </row>
     <row r="169" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -60536,7 +60603,7 @@
       <c r="E169" s="1"/>
       <c r="F169" s="51">
         <f>SUM(E171:E179)</f>
-        <v>189000</v>
+        <v>159000</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -60555,7 +60622,7 @@
     </row>
     <row r="171" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B171" s="52">
         <v>0.3</v>
@@ -60564,11 +60631,11 @@
         <v>62</v>
       </c>
       <c r="D171" s="52">
-        <v>630000</v>
+        <v>530000</v>
       </c>
       <c r="E171" s="52">
-        <f t="shared" ref="E171:E179" si="14">D171*B171</f>
-        <v>189000</v>
+        <f t="shared" ref="E171:E179" si="11">D171*B171</f>
+        <v>159000</v>
       </c>
       <c r="F171" s="5"/>
     </row>
@@ -60578,7 +60645,7 @@
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F172" s="5"/>
@@ -60589,7 +60656,7 @@
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F173" s="5"/>
@@ -60600,7 +60667,7 @@
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F174" s="5"/>
@@ -60611,7 +60678,7 @@
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F175" s="5"/>
@@ -60622,7 +60689,7 @@
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F176" s="5"/>
@@ -60633,7 +60700,7 @@
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F177" s="5"/>
@@ -60644,7 +60711,7 @@
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F178" s="5"/>
@@ -60655,7 +60722,7 @@
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F179" s="5"/>
@@ -60670,7 +60737,7 @@
     </row>
     <row r="181" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -60678,7 +60745,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="51">
         <f>SUM(E183:E191)</f>
-        <v>10000</v>
+        <v>189000</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -60696,33 +60763,31 @@
       <c r="F182" s="5"/>
     </row>
     <row r="183" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A183" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B183" s="53">
-        <v>1</v>
-      </c>
-      <c r="C183" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="D183" s="53">
-        <v>10000</v>
+      <c r="A183" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B183" s="52">
+        <v>0.3</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D183" s="52">
+        <v>630000</v>
       </c>
       <c r="E183" s="52">
-        <f t="shared" ref="E183:E191" si="15">D183*B183</f>
-        <v>10000</v>
+        <f t="shared" ref="E183:E191" si="12">D183*B183</f>
+        <v>189000</v>
       </c>
       <c r="F183" s="5"/>
     </row>
     <row r="184" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
-      <c r="C184" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F184" s="5"/>
@@ -60730,12 +60795,10 @@
     <row r="185" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
-      <c r="C185" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F185" s="5"/>
@@ -60743,12 +60806,10 @@
     <row r="186" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
-      <c r="C186" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F186" s="5"/>
@@ -60756,12 +60817,10 @@
     <row r="187" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
-      <c r="C187" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F187" s="5"/>
@@ -60769,12 +60828,10 @@
     <row r="188" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
-      <c r="C188" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F188" s="5"/>
@@ -60782,12 +60839,10 @@
     <row r="189" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
-      <c r="C189" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F189" s="5"/>
@@ -60795,12 +60850,10 @@
     <row r="190" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
-      <c r="C190" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F190" s="5"/>
@@ -60808,12 +60861,10 @@
     <row r="191" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
-      <c r="C191" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F191" s="5"/>
@@ -60828,7 +60879,7 @@
     </row>
     <row r="193" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>341</v>
+        <v>129</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -60854,20 +60905,20 @@
       <c r="F194" s="5"/>
     </row>
     <row r="195" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A195" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B195" s="52">
+      <c r="A195" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B195" s="53">
         <v>1</v>
       </c>
-      <c r="C195" s="5" t="s">
-        <v>7</v>
+      <c r="C195" s="39" t="s">
+        <v>130</v>
       </c>
       <c r="D195" s="53">
         <v>10000</v>
       </c>
       <c r="E195" s="52">
-        <f t="shared" ref="E195:E203" si="16">D195*B195</f>
+        <f t="shared" ref="E195:E203" si="13">D195*B195</f>
         <v>10000</v>
       </c>
       <c r="F195" s="5"/>
@@ -60875,10 +60926,12 @@
     <row r="196" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
-      <c r="C196" s="5"/>
+      <c r="C196" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D196" s="5"/>
       <c r="E196" s="52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F196" s="5"/>
@@ -60886,10 +60939,12 @@
     <row r="197" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
+      <c r="C197" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D197" s="5"/>
       <c r="E197" s="52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F197" s="5"/>
@@ -60897,10 +60952,12 @@
     <row r="198" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
-      <c r="C198" s="5"/>
+      <c r="C198" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D198" s="5"/>
       <c r="E198" s="52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F198" s="5"/>
@@ -60908,10 +60965,12 @@
     <row r="199" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
+      <c r="C199" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D199" s="5"/>
       <c r="E199" s="52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F199" s="5"/>
@@ -60919,10 +60978,12 @@
     <row r="200" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
-      <c r="C200" s="5"/>
+      <c r="C200" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D200" s="5"/>
       <c r="E200" s="52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F200" s="5"/>
@@ -60930,10 +60991,12 @@
     <row r="201" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
-      <c r="C201" s="5"/>
+      <c r="C201" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D201" s="5"/>
       <c r="E201" s="52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F201" s="5"/>
@@ -60941,10 +61004,12 @@
     <row r="202" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
-      <c r="C202" s="5"/>
+      <c r="C202" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D202" s="5"/>
       <c r="E202" s="52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F202" s="5"/>
@@ -60952,10 +61017,12 @@
     <row r="203" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
-      <c r="C203" s="5"/>
+      <c r="C203" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D203" s="5"/>
       <c r="E203" s="52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F203" s="5"/>
@@ -60969,8 +61036,8 @@
       <c r="F204" s="5"/>
     </row>
     <row r="205" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A205" s="51" t="s">
-        <v>132</v>
+      <c r="A205" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -60978,7 +61045,7 @@
       <c r="E205" s="1"/>
       <c r="F205" s="51">
         <f>SUM(E207:E215)</f>
-        <v>50000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -60996,33 +61063,31 @@
       <c r="F206" s="5"/>
     </row>
     <row r="207" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A207" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="B207" s="53">
+      <c r="A207" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B207" s="52">
         <v>1</v>
       </c>
-      <c r="C207" s="39" t="s">
-        <v>133</v>
+      <c r="C207" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D207" s="53">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="E207" s="52">
-        <f t="shared" ref="E207:E215" si="17">D207*B207</f>
-        <v>50000</v>
+        <f t="shared" ref="E207:E215" si="14">D207*B207</f>
+        <v>10000</v>
       </c>
       <c r="F207" s="5"/>
     </row>
     <row r="208" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
-      <c r="C208" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F208" s="5"/>
@@ -61030,12 +61095,10 @@
     <row r="209" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
-      <c r="C209" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F209" s="5"/>
@@ -61043,12 +61106,10 @@
     <row r="210" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
-      <c r="C210" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F210" s="5"/>
@@ -61056,12 +61117,10 @@
     <row r="211" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
-      <c r="C211" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F211" s="5"/>
@@ -61069,12 +61128,10 @@
     <row r="212" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
-      <c r="C212" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F212" s="5"/>
@@ -61082,12 +61139,10 @@
     <row r="213" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
-      <c r="C213" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F213" s="5"/>
@@ -61095,12 +61150,10 @@
     <row r="214" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
-      <c r="C214" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F214" s="5"/>
@@ -61108,12 +61161,10 @@
     <row r="215" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
-      <c r="C215" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F215" s="5"/>
@@ -61127,8 +61178,8 @@
       <c r="F216" s="5"/>
     </row>
     <row r="217" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A217" s="1" t="s">
-        <v>134</v>
+      <c r="A217" s="51" t="s">
+        <v>132</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -61136,7 +61187,7 @@
       <c r="E217" s="1"/>
       <c r="F217" s="51">
         <f>SUM(E219:E227)</f>
-        <v>485000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -61155,49 +61206,45 @@
     </row>
     <row r="219" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A219" s="39" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B219" s="53">
         <v>1</v>
       </c>
       <c r="C219" s="39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D219" s="53">
-        <v>135000</v>
+        <v>50000</v>
       </c>
       <c r="E219" s="52">
-        <f t="shared" ref="E219:E227" si="18">D219*B219</f>
-        <v>135000</v>
+        <f t="shared" ref="E219:E227" si="15">D219*B219</f>
+        <v>50000</v>
       </c>
       <c r="F219" s="5"/>
     </row>
     <row r="220" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A220" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="B220" s="53">
-        <v>1</v>
-      </c>
-      <c r="C220" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="D220" s="53">
-        <v>350000</v>
-      </c>
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D220" s="5"/>
       <c r="E220" s="52">
-        <f t="shared" si="18"/>
-        <v>350000</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="F220" s="5"/>
     </row>
     <row r="221" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
-      <c r="C221" s="5"/>
+      <c r="C221" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D221" s="5"/>
       <c r="E221" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F221" s="5"/>
@@ -61205,10 +61252,12 @@
     <row r="222" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
-      <c r="C222" s="5"/>
+      <c r="C222" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D222" s="5"/>
       <c r="E222" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F222" s="5"/>
@@ -61216,10 +61265,12 @@
     <row r="223" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
-      <c r="C223" s="5"/>
+      <c r="C223" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D223" s="5"/>
       <c r="E223" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F223" s="5"/>
@@ -61227,10 +61278,12 @@
     <row r="224" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
-      <c r="C224" s="5"/>
+      <c r="C224" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D224" s="5"/>
       <c r="E224" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F224" s="5"/>
@@ -61238,10 +61291,12 @@
     <row r="225" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
-      <c r="C225" s="5"/>
+      <c r="C225" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D225" s="5"/>
       <c r="E225" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F225" s="5"/>
@@ -61249,10 +61304,12 @@
     <row r="226" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
-      <c r="C226" s="5"/>
+      <c r="C226" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D226" s="5"/>
       <c r="E226" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F226" s="5"/>
@@ -61260,10 +61317,12 @@
     <row r="227" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
-      <c r="C227" s="5"/>
+      <c r="C227" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D227" s="5"/>
       <c r="E227" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F227" s="5"/>
@@ -61278,7 +61337,7 @@
     </row>
     <row r="229" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -61286,7 +61345,7 @@
       <c r="E229" s="1"/>
       <c r="F229" s="51">
         <f>SUM(E231:E239)</f>
-        <v>610000</v>
+        <v>485000</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -61305,31 +61364,39 @@
     </row>
     <row r="231" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A231" s="39" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B231" s="53">
         <v>1</v>
       </c>
       <c r="C231" s="39" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D231" s="53">
-        <v>610000</v>
+        <v>135000</v>
       </c>
       <c r="E231" s="52">
-        <f t="shared" ref="E231:E239" si="19">D231*B231</f>
-        <v>610000</v>
+        <f t="shared" ref="E231:E239" si="16">D231*B231</f>
+        <v>135000</v>
       </c>
       <c r="F231" s="5"/>
     </row>
     <row r="232" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A232" s="5"/>
-      <c r="B232" s="5"/>
-      <c r="C232" s="5"/>
-      <c r="D232" s="5"/>
+      <c r="A232" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B232" s="53">
+        <v>1</v>
+      </c>
+      <c r="C232" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D232" s="53">
+        <v>350000</v>
+      </c>
       <c r="E232" s="52">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>350000</v>
       </c>
       <c r="F232" s="5"/>
     </row>
@@ -61339,7 +61406,7 @@
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F233" s="5"/>
@@ -61350,7 +61417,7 @@
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F234" s="5"/>
@@ -61361,7 +61428,7 @@
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F235" s="5"/>
@@ -61372,7 +61439,7 @@
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F236" s="5"/>
@@ -61383,7 +61450,7 @@
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F237" s="5"/>
@@ -61394,7 +61461,7 @@
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F238" s="5"/>
@@ -61405,7 +61472,7 @@
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F239" s="5"/>
@@ -61420,7 +61487,7 @@
     </row>
     <row r="241" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -61428,7 +61495,7 @@
       <c r="E241" s="1"/>
       <c r="F241" s="51">
         <f>SUM(E243:E251)</f>
-        <v>142500</v>
+        <v>610000</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -61446,33 +61513,31 @@
       <c r="F242" s="5"/>
     </row>
     <row r="243" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A243" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B243" s="52">
-        <v>0.3</v>
-      </c>
-      <c r="C243" s="5" t="s">
+      <c r="A243" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B243" s="53">
+        <v>1</v>
+      </c>
+      <c r="C243" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="D243" s="52">
-        <v>475000</v>
+      <c r="D243" s="53">
+        <v>610000</v>
       </c>
       <c r="E243" s="52">
-        <f t="shared" ref="E243:E251" si="20">D243*B243</f>
-        <v>142500</v>
+        <f t="shared" ref="E243:E251" si="17">D243*B243</f>
+        <v>610000</v>
       </c>
       <c r="F243" s="5"/>
     </row>
     <row r="244" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
-      <c r="C244" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F244" s="5"/>
@@ -61480,12 +61545,10 @@
     <row r="245" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
-      <c r="C245" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F245" s="5"/>
@@ -61493,12 +61556,10 @@
     <row r="246" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
-      <c r="C246" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F246" s="5"/>
@@ -61506,12 +61567,10 @@
     <row r="247" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
-      <c r="C247" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F247" s="5"/>
@@ -61519,12 +61578,10 @@
     <row r="248" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
-      <c r="C248" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F248" s="5"/>
@@ -61532,12 +61589,10 @@
     <row r="249" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
-      <c r="C249" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F249" s="5"/>
@@ -61545,12 +61600,10 @@
     <row r="250" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
-      <c r="C250" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F250" s="5"/>
@@ -61558,12 +61611,10 @@
     <row r="251" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
-      <c r="C251" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F251" s="5"/>
@@ -61578,7 +61629,7 @@
     </row>
     <row r="253" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -61586,7 +61637,7 @@
       <c r="E253" s="1"/>
       <c r="F253" s="51">
         <f>SUM(E255:E263)</f>
-        <v>0</v>
+        <v>142500</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -61604,15 +61655,21 @@
       <c r="F254" s="5"/>
     </row>
     <row r="255" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A255" s="5"/>
-      <c r="B255" s="5"/>
+      <c r="A255" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B255" s="52">
+        <v>0.3</v>
+      </c>
       <c r="C255" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D255" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="D255" s="52">
+        <v>475000</v>
+      </c>
       <c r="E255" s="52">
-        <f t="shared" ref="E255:E263" si="21">D255*B255</f>
-        <v>0</v>
+        <f t="shared" ref="E255:E263" si="18">D255*B255</f>
+        <v>142500</v>
       </c>
       <c r="F255" s="5"/>
     </row>
@@ -61624,7 +61681,7 @@
       </c>
       <c r="D256" s="5"/>
       <c r="E256" s="52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F256" s="5"/>
@@ -61637,7 +61694,7 @@
       </c>
       <c r="D257" s="5"/>
       <c r="E257" s="52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F257" s="5"/>
@@ -61650,7 +61707,7 @@
       </c>
       <c r="D258" s="5"/>
       <c r="E258" s="52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F258" s="5"/>
@@ -61663,7 +61720,7 @@
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F259" s="5"/>
@@ -61676,7 +61733,7 @@
       </c>
       <c r="D260" s="5"/>
       <c r="E260" s="52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F260" s="5"/>
@@ -61689,7 +61746,7 @@
       </c>
       <c r="D261" s="5"/>
       <c r="E261" s="52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F261" s="5"/>
@@ -61702,7 +61759,7 @@
       </c>
       <c r="D262" s="5"/>
       <c r="E262" s="52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F262" s="5"/>
@@ -61715,7 +61772,7 @@
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F263" s="5"/>
@@ -61763,7 +61820,7 @@
       </c>
       <c r="D267" s="5"/>
       <c r="E267" s="52">
-        <f t="shared" ref="E267:E275" si="22">D267*B267</f>
+        <f t="shared" ref="E267:E275" si="19">D267*B267</f>
         <v>0</v>
       </c>
       <c r="F267" s="5"/>
@@ -61776,7 +61833,7 @@
       </c>
       <c r="D268" s="5"/>
       <c r="E268" s="52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F268" s="5"/>
@@ -61789,7 +61846,7 @@
       </c>
       <c r="D269" s="5"/>
       <c r="E269" s="52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F269" s="5"/>
@@ -61802,7 +61859,7 @@
       </c>
       <c r="D270" s="5"/>
       <c r="E270" s="52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F270" s="5"/>
@@ -61815,7 +61872,7 @@
       </c>
       <c r="D271" s="5"/>
       <c r="E271" s="52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F271" s="5"/>
@@ -61828,7 +61885,7 @@
       </c>
       <c r="D272" s="5"/>
       <c r="E272" s="52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F272" s="5"/>
@@ -61841,7 +61898,7 @@
       </c>
       <c r="D273" s="5"/>
       <c r="E273" s="52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F273" s="5"/>
@@ -61854,7 +61911,7 @@
       </c>
       <c r="D274" s="5"/>
       <c r="E274" s="52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F274" s="5"/>
@@ -61867,7 +61924,7 @@
       </c>
       <c r="D275" s="5"/>
       <c r="E275" s="52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F275" s="5"/>
@@ -61915,7 +61972,7 @@
       </c>
       <c r="D279" s="5"/>
       <c r="E279" s="52">
-        <f t="shared" ref="E279:E287" si="23">D279*B279</f>
+        <f t="shared" ref="E279:E287" si="20">D279*B279</f>
         <v>0</v>
       </c>
       <c r="F279" s="5"/>
@@ -61928,7 +61985,7 @@
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F280" s="5"/>
@@ -61941,7 +61998,7 @@
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F281" s="5"/>
@@ -61954,7 +62011,7 @@
       </c>
       <c r="D282" s="5"/>
       <c r="E282" s="52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F282" s="5"/>
@@ -61967,7 +62024,7 @@
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F283" s="5"/>
@@ -61980,7 +62037,7 @@
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F284" s="5"/>
@@ -61993,7 +62050,7 @@
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F285" s="5"/>
@@ -62006,7 +62063,7 @@
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F286" s="5"/>
@@ -62019,7 +62076,7 @@
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F287" s="5"/>
@@ -62067,7 +62124,7 @@
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="52">
-        <f t="shared" ref="E291:E299" si="24">D291*B291</f>
+        <f t="shared" ref="E291:E299" si="21">D291*B291</f>
         <v>0</v>
       </c>
       <c r="F291" s="5"/>
@@ -62080,7 +62137,7 @@
       </c>
       <c r="D292" s="5"/>
       <c r="E292" s="52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F292" s="5"/>
@@ -62093,7 +62150,7 @@
       </c>
       <c r="D293" s="5"/>
       <c r="E293" s="52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F293" s="5"/>
@@ -62106,7 +62163,7 @@
       </c>
       <c r="D294" s="5"/>
       <c r="E294" s="52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F294" s="5"/>
@@ -62119,7 +62176,7 @@
       </c>
       <c r="D295" s="5"/>
       <c r="E295" s="52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F295" s="5"/>
@@ -62132,7 +62189,7 @@
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F296" s="5"/>
@@ -62145,7 +62202,7 @@
       </c>
       <c r="D297" s="5"/>
       <c r="E297" s="52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F297" s="5"/>
@@ -62158,7 +62215,7 @@
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F298" s="5"/>
@@ -62171,7 +62228,7 @@
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F299" s="5"/>
@@ -62219,7 +62276,7 @@
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="52">
-        <f t="shared" ref="E303:E311" si="25">D303*B303</f>
+        <f t="shared" ref="E303:E311" si="22">D303*B303</f>
         <v>0</v>
       </c>
       <c r="F303" s="5"/>
@@ -62232,7 +62289,7 @@
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="52">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F304" s="5"/>
@@ -62245,7 +62302,7 @@
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="52">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F305" s="5"/>
@@ -62258,7 +62315,7 @@
       </c>
       <c r="D306" s="5"/>
       <c r="E306" s="52">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F306" s="5"/>
@@ -62271,7 +62328,7 @@
       </c>
       <c r="D307" s="5"/>
       <c r="E307" s="52">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F307" s="5"/>
@@ -62284,7 +62341,7 @@
       </c>
       <c r="D308" s="5"/>
       <c r="E308" s="52">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F308" s="5"/>
@@ -62297,7 +62354,7 @@
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="52">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F309" s="5"/>
@@ -62310,7 +62367,7 @@
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="52">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F310" s="5"/>
@@ -62323,7 +62380,7 @@
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="52">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F311" s="5"/>
@@ -62371,7 +62428,7 @@
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="52">
-        <f t="shared" ref="E315:E323" si="26">D315*B315</f>
+        <f t="shared" ref="E315:E323" si="23">D315*B315</f>
         <v>0</v>
       </c>
       <c r="F315" s="5"/>
@@ -62384,7 +62441,7 @@
       </c>
       <c r="D316" s="5"/>
       <c r="E316" s="52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F316" s="5"/>
@@ -62397,7 +62454,7 @@
       </c>
       <c r="D317" s="5"/>
       <c r="E317" s="52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F317" s="5"/>
@@ -62410,7 +62467,7 @@
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F318" s="5"/>
@@ -62423,7 +62480,7 @@
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F319" s="5"/>
@@ -62436,7 +62493,7 @@
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F320" s="5"/>
@@ -62449,7 +62506,7 @@
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F321" s="5"/>
@@ -62462,7 +62519,7 @@
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F322" s="5"/>
@@ -62475,7 +62532,7 @@
       </c>
       <c r="D323" s="5"/>
       <c r="E323" s="52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F323" s="5"/>
@@ -62523,7 +62580,7 @@
       </c>
       <c r="D327" s="5"/>
       <c r="E327" s="52">
-        <f t="shared" ref="E327:E335" si="27">D327*B327</f>
+        <f t="shared" ref="E327:E335" si="24">D327*B327</f>
         <v>0</v>
       </c>
       <c r="F327" s="5"/>
@@ -62536,7 +62593,7 @@
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="52">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F328" s="5"/>
@@ -62549,7 +62606,7 @@
       </c>
       <c r="D329" s="5"/>
       <c r="E329" s="52">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F329" s="5"/>
@@ -62562,7 +62619,7 @@
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="52">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F330" s="5"/>
@@ -62575,7 +62632,7 @@
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="52">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F331" s="5"/>
@@ -62588,7 +62645,7 @@
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="52">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F332" s="5"/>
@@ -62601,7 +62658,7 @@
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="52">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F333" s="5"/>
@@ -62614,7 +62671,7 @@
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="52">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F334" s="5"/>
@@ -62627,7 +62684,7 @@
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="52">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F335" s="5"/>
@@ -62675,7 +62732,7 @@
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="52">
-        <f t="shared" ref="E339:E347" si="28">D339*B339</f>
+        <f t="shared" ref="E339:E347" si="25">D339*B339</f>
         <v>0</v>
       </c>
       <c r="F339" s="5"/>
@@ -62688,7 +62745,7 @@
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="52">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F340" s="5"/>
@@ -62701,7 +62758,7 @@
       </c>
       <c r="D341" s="5"/>
       <c r="E341" s="52">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F341" s="5"/>
@@ -62714,7 +62771,7 @@
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="52">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F342" s="5"/>
@@ -62727,7 +62784,7 @@
       </c>
       <c r="D343" s="5"/>
       <c r="E343" s="52">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F343" s="5"/>
@@ -62740,7 +62797,7 @@
       </c>
       <c r="D344" s="5"/>
       <c r="E344" s="52">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F344" s="5"/>
@@ -62753,7 +62810,7 @@
       </c>
       <c r="D345" s="5"/>
       <c r="E345" s="52">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F345" s="5"/>
@@ -62766,7 +62823,7 @@
       </c>
       <c r="D346" s="5"/>
       <c r="E346" s="52">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F346" s="5"/>
@@ -62779,10 +62836,162 @@
       </c>
       <c r="D347" s="5"/>
       <c r="E347" s="52">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F347" s="5"/>
+    </row>
+    <row r="348" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A348" s="5"/>
+      <c r="B348" s="5"/>
+      <c r="C348" s="5"/>
+      <c r="D348" s="5"/>
+      <c r="E348" s="5"/>
+      <c r="F348" s="5"/>
+    </row>
+    <row r="349" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A349" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+      <c r="F349" s="51">
+        <f>SUM(E351:E359)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A350" s="5"/>
+      <c r="B350" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C350" s="5"/>
+      <c r="D350" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F350" s="5"/>
+    </row>
+    <row r="351" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A351" s="5"/>
+      <c r="B351" s="5"/>
+      <c r="C351" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D351" s="5"/>
+      <c r="E351" s="52">
+        <f t="shared" ref="E351:E359" si="26">D351*B351</f>
+        <v>0</v>
+      </c>
+      <c r="F351" s="5"/>
+    </row>
+    <row r="352" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A352" s="5"/>
+      <c r="B352" s="5"/>
+      <c r="C352" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D352" s="5"/>
+      <c r="E352" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F352" s="5"/>
+    </row>
+    <row r="353" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A353" s="5"/>
+      <c r="B353" s="5"/>
+      <c r="C353" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D353" s="5"/>
+      <c r="E353" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F353" s="5"/>
+    </row>
+    <row r="354" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A354" s="5"/>
+      <c r="B354" s="5"/>
+      <c r="C354" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D354" s="5"/>
+      <c r="E354" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F354" s="5"/>
+    </row>
+    <row r="355" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A355" s="5"/>
+      <c r="B355" s="5"/>
+      <c r="C355" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D355" s="5"/>
+      <c r="E355" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F355" s="5"/>
+    </row>
+    <row r="356" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A356" s="5"/>
+      <c r="B356" s="5"/>
+      <c r="C356" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D356" s="5"/>
+      <c r="E356" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F356" s="5"/>
+    </row>
+    <row r="357" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A357" s="5"/>
+      <c r="B357" s="5"/>
+      <c r="C357" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D357" s="5"/>
+      <c r="E357" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F357" s="5"/>
+    </row>
+    <row r="358" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A358" s="5"/>
+      <c r="B358" s="5"/>
+      <c r="C358" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D358" s="5"/>
+      <c r="E358" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F358" s="5"/>
+    </row>
+    <row r="359" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A359" s="5"/>
+      <c r="B359" s="5"/>
+      <c r="C359" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D359" s="5"/>
+      <c r="E359" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F359" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
